--- a/BackTest/2019-10-20 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-20 BackTest ZRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>9</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L12" t="n">
         <v>376.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>10</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L13" t="n">
         <v>376.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>11</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L14" t="n">
         <v>376.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>11</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>376.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>11</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>60</v>
+      </c>
       <c r="L16" t="n">
         <v>376.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>11</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>376.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>11</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>376.9</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>11</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>376.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>11</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>376.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>11</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>376.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>11</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>376.9</v>
       </c>
@@ -1416,9 +1438,7 @@
       <c r="J23" t="n">
         <v>11</v>
       </c>
-      <c r="K23" t="n">
-        <v>9.090909090909092</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>377</v>
       </c>
@@ -1465,9 +1485,7 @@
       <c r="J24" t="n">
         <v>11</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>377</v>
       </c>
@@ -1515,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>377.1</v>
@@ -1564,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="K26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>377.3</v>
@@ -1613,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="K27" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>377.5</v>
@@ -1662,7 +1680,7 @@
         <v>13</v>
       </c>
       <c r="K28" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>377.7</v>
@@ -1711,7 +1729,7 @@
         <v>13</v>
       </c>
       <c r="K29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>377.9</v>
@@ -1760,7 +1778,7 @@
         <v>13</v>
       </c>
       <c r="K30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>378.1</v>
@@ -1809,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="K31" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L31" t="n">
         <v>378</v>
@@ -1860,7 +1878,7 @@
         <v>19</v>
       </c>
       <c r="K32" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L32" t="n">
         <v>378.2</v>
@@ -1911,7 +1929,7 @@
         <v>21</v>
       </c>
       <c r="K33" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>378.2</v>
@@ -1962,7 +1980,7 @@
         <v>23</v>
       </c>
       <c r="K34" t="n">
-        <v>16.66666666666666</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L34" t="n">
         <v>378.4</v>
@@ -2013,7 +2031,7 @@
         <v>24</v>
       </c>
       <c r="K35" t="n">
-        <v>23.07692307692308</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L35" t="n">
         <v>378.6</v>
@@ -2064,7 +2082,7 @@
         <v>26</v>
       </c>
       <c r="K36" t="n">
-        <v>6.666666666666667</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L36" t="n">
         <v>378.5</v>
@@ -2115,7 +2133,7 @@
         <v>27</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>378.3</v>
@@ -2166,7 +2184,7 @@
         <v>27</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L38" t="n">
         <v>378.1</v>
@@ -2217,7 +2235,7 @@
         <v>27</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L39" t="n">
         <v>377.9</v>
@@ -2268,7 +2286,7 @@
         <v>29</v>
       </c>
       <c r="K40" t="n">
-        <v>11.11111111111111</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L40" t="n">
         <v>377.9</v>
@@ -2319,7 +2337,7 @@
         <v>30</v>
       </c>
       <c r="K41" t="n">
-        <v>15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L41" t="n">
         <v>378.3</v>
@@ -2370,7 +2388,7 @@
         <v>31</v>
       </c>
       <c r="K42" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L42" t="n">
         <v>378.5</v>
@@ -2421,7 +2439,7 @@
         <v>34</v>
       </c>
       <c r="K43" t="n">
-        <v>4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L43" t="n">
         <v>378.6</v>
@@ -2472,7 +2490,7 @@
         <v>36</v>
       </c>
       <c r="K44" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>378.7</v>
@@ -2523,7 +2541,7 @@
         <v>36</v>
       </c>
       <c r="K45" t="n">
-        <v>8.333333333333332</v>
+        <v>20</v>
       </c>
       <c r="L45" t="n">
         <v>378.7</v>
@@ -2574,7 +2592,7 @@
         <v>36</v>
       </c>
       <c r="K46" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>378.9</v>
@@ -2625,7 +2643,7 @@
         <v>36</v>
       </c>
       <c r="K47" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>379.2</v>
@@ -2680,7 +2698,7 @@
         <v>38</v>
       </c>
       <c r="K48" t="n">
-        <v>12</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L48" t="n">
         <v>379.7</v>
@@ -2739,7 +2757,7 @@
         <v>38</v>
       </c>
       <c r="K49" t="n">
-        <v>12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>380.2</v>
@@ -2798,7 +2816,7 @@
         <v>40</v>
       </c>
       <c r="K50" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>380.3</v>
@@ -2857,7 +2875,7 @@
         <v>41</v>
       </c>
       <c r="K51" t="n">
-        <v>12</v>
+        <v>-20</v>
       </c>
       <c r="L51" t="n">
         <v>380.2</v>
@@ -2916,7 +2934,7 @@
         <v>45</v>
       </c>
       <c r="K52" t="n">
-        <v>-15.38461538461539</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L52" t="n">
         <v>379.6</v>
@@ -2973,7 +2991,7 @@
         <v>46</v>
       </c>
       <c r="K53" t="n">
-        <v>-12</v>
+        <v>-60</v>
       </c>
       <c r="L53" t="n">
         <v>379.2</v>
@@ -3034,7 +3052,7 @@
         <v>46</v>
       </c>
       <c r="K54" t="n">
-        <v>-21.73913043478261</v>
+        <v>-60</v>
       </c>
       <c r="L54" t="n">
         <v>378.6</v>
@@ -3095,7 +3113,7 @@
         <v>49</v>
       </c>
       <c r="K55" t="n">
-        <v>-36</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L55" t="n">
         <v>377.7</v>
@@ -3156,7 +3174,7 @@
         <v>49</v>
       </c>
       <c r="K56" t="n">
-        <v>-30.43478260869566</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L56" t="n">
         <v>376.8</v>
@@ -3215,7 +3233,7 @@
         <v>49</v>
       </c>
       <c r="K57" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L57" t="n">
         <v>375.9</v>
@@ -3278,7 +3296,7 @@
         <v>49</v>
       </c>
       <c r="K58" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L58" t="n">
         <v>374.8</v>
@@ -3341,7 +3359,7 @@
         <v>50</v>
       </c>
       <c r="K59" t="n">
-        <v>-30.43478260869566</v>
+        <v>-100</v>
       </c>
       <c r="L59" t="n">
         <v>373.6</v>
@@ -3404,7 +3422,7 @@
         <v>51</v>
       </c>
       <c r="K60" t="n">
-        <v>-36.36363636363637</v>
+        <v>-80</v>
       </c>
       <c r="L60" t="n">
         <v>372.7</v>
@@ -3467,7 +3485,7 @@
         <v>52</v>
       </c>
       <c r="K61" t="n">
-        <v>-36.36363636363637</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L61" t="n">
         <v>372</v>
@@ -3528,7 +3546,7 @@
         <v>53</v>
       </c>
       <c r="K62" t="n">
-        <v>-45.45454545454545</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L62" t="n">
         <v>371.6</v>
@@ -3589,7 +3607,7 @@
         <v>54</v>
       </c>
       <c r="K63" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L63" t="n">
         <v>371.2</v>
@@ -3648,7 +3666,7 @@
         <v>54</v>
       </c>
       <c r="K64" t="n">
-        <v>-55.55555555555556</v>
+        <v>-20</v>
       </c>
       <c r="L64" t="n">
         <v>370.8</v>
@@ -3705,7 +3723,7 @@
         <v>56</v>
       </c>
       <c r="K65" t="n">
-        <v>-40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L65" t="n">
         <v>370.9</v>
@@ -3762,7 +3780,7 @@
         <v>57</v>
       </c>
       <c r="K66" t="n">
-        <v>-33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L66" t="n">
         <v>371.1</v>
@@ -3819,7 +3837,7 @@
         <v>60</v>
       </c>
       <c r="K67" t="n">
-        <v>-41.66666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L67" t="n">
         <v>371</v>
@@ -3876,7 +3894,7 @@
         <v>61</v>
       </c>
       <c r="K68" t="n">
-        <v>-56.52173913043478</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L68" t="n">
         <v>370.8</v>
@@ -3933,7 +3951,7 @@
         <v>65</v>
       </c>
       <c r="K69" t="n">
-        <v>-33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L69" t="n">
         <v>371.1</v>
@@ -3990,7 +4008,7 @@
         <v>67</v>
       </c>
       <c r="K70" t="n">
-        <v>-33.33333333333333</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L70" t="n">
         <v>371.1</v>
@@ -4047,7 +4065,7 @@
         <v>69</v>
       </c>
       <c r="K71" t="n">
-        <v>-35.71428571428572</v>
+        <v>-12.5</v>
       </c>
       <c r="L71" t="n">
         <v>370.8</v>
@@ -4098,7 +4116,7 @@
         <v>69</v>
       </c>
       <c r="K72" t="n">
-        <v>-25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L72" t="n">
         <v>370.6</v>
@@ -4149,7 +4167,7 @@
         <v>71</v>
       </c>
       <c r="K73" t="n">
-        <v>-28</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L73" t="n">
         <v>370.3</v>
@@ -4200,7 +4218,7 @@
         <v>71</v>
       </c>
       <c r="K74" t="n">
-        <v>-28</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>370</v>
@@ -4251,7 +4269,7 @@
         <v>72</v>
       </c>
       <c r="K75" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>369.6</v>
@@ -4302,7 +4320,7 @@
         <v>73</v>
       </c>
       <c r="K76" t="n">
-        <v>-16.66666666666666</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L76" t="n">
         <v>369</v>
@@ -4353,7 +4371,7 @@
         <v>74</v>
       </c>
       <c r="K77" t="n">
-        <v>-20</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L77" t="n">
         <v>368.6</v>
@@ -4404,7 +4422,7 @@
         <v>75</v>
       </c>
       <c r="K78" t="n">
-        <v>-23.07692307692308</v>
+        <v>-80</v>
       </c>
       <c r="L78" t="n">
         <v>368.2</v>
@@ -4455,7 +4473,7 @@
         <v>75</v>
       </c>
       <c r="K79" t="n">
-        <v>-20</v>
+        <v>-75</v>
       </c>
       <c r="L79" t="n">
         <v>367.4</v>
@@ -4506,7 +4524,7 @@
         <v>78</v>
       </c>
       <c r="K80" t="n">
-        <v>-33.33333333333333</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L80" t="n">
         <v>366.5</v>
@@ -4557,7 +4575,7 @@
         <v>80</v>
       </c>
       <c r="K81" t="n">
-        <v>-28.57142857142857</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L81" t="n">
         <v>366</v>
@@ -4608,7 +4626,7 @@
         <v>81</v>
       </c>
       <c r="K82" t="n">
-        <v>-21.42857142857143</v>
+        <v>-20</v>
       </c>
       <c r="L82" t="n">
         <v>365.6</v>
@@ -4659,7 +4677,7 @@
         <v>83</v>
       </c>
       <c r="K83" t="n">
-        <v>-24.13793103448276</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>365.2</v>
@@ -4710,7 +4728,7 @@
         <v>85</v>
       </c>
       <c r="K84" t="n">
-        <v>-16.12903225806452</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L84" t="n">
         <v>365</v>
@@ -4761,7 +4779,7 @@
         <v>85</v>
       </c>
       <c r="K85" t="n">
-        <v>-24.13793103448276</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>364.7</v>
@@ -4812,7 +4830,7 @@
         <v>85</v>
       </c>
       <c r="K86" t="n">
-        <v>-28.57142857142857</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L86" t="n">
         <v>364.5</v>
@@ -4863,7 +4881,7 @@
         <v>85</v>
       </c>
       <c r="K87" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>364.4</v>
@@ -4914,7 +4932,7 @@
         <v>85</v>
       </c>
       <c r="K88" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>364.4</v>
@@ -4965,7 +4983,7 @@
         <v>90</v>
       </c>
       <c r="K89" t="n">
-        <v>-12</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L89" t="n">
         <v>364.9</v>
@@ -5016,7 +5034,7 @@
         <v>94</v>
       </c>
       <c r="K90" t="n">
-        <v>11.11111111111111</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L90" t="n">
         <v>366.1</v>
@@ -5067,7 +5085,7 @@
         <v>95</v>
       </c>
       <c r="K91" t="n">
-        <v>15.38461538461539</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L91" t="n">
         <v>367</v>
@@ -5118,7 +5136,7 @@
         <v>98</v>
       </c>
       <c r="K92" t="n">
-        <v>24.13793103448276</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L92" t="n">
         <v>368.1</v>
@@ -5169,7 +5187,7 @@
         <v>98</v>
       </c>
       <c r="K93" t="n">
-        <v>33.33333333333333</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L93" t="n">
         <v>369.4</v>
@@ -5220,7 +5238,7 @@
         <v>100</v>
       </c>
       <c r="K94" t="n">
-        <v>37.93103448275862</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L94" t="n">
         <v>370.7</v>
@@ -5271,7 +5289,7 @@
         <v>100</v>
       </c>
       <c r="K95" t="n">
-        <v>35.71428571428572</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L95" t="n">
         <v>372</v>
@@ -5322,7 +5340,7 @@
         <v>101</v>
       </c>
       <c r="K96" t="n">
-        <v>42.85714285714285</v>
+        <v>87.5</v>
       </c>
       <c r="L96" t="n">
         <v>373.4</v>
@@ -5373,7 +5391,7 @@
         <v>101</v>
       </c>
       <c r="K97" t="n">
-        <v>48.14814814814815</v>
+        <v>87.5</v>
       </c>
       <c r="L97" t="n">
         <v>374.8</v>
@@ -5424,7 +5442,7 @@
         <v>103</v>
       </c>
       <c r="K98" t="n">
-        <v>57.14285714285714</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L98" t="n">
         <v>376.4</v>
@@ -5475,7 +5493,7 @@
         <v>108</v>
       </c>
       <c r="K99" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L99" t="n">
         <v>377</v>
@@ -5526,7 +5544,7 @@
         <v>110</v>
       </c>
       <c r="K100" t="n">
-        <v>37.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L100" t="n">
         <v>377</v>
@@ -5577,7 +5595,7 @@
         <v>112</v>
       </c>
       <c r="K101" t="n">
-        <v>25</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L101" t="n">
         <v>376.9</v>
@@ -5628,7 +5646,7 @@
         <v>116</v>
       </c>
       <c r="K102" t="n">
-        <v>31.42857142857143</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>376.9</v>
@@ -5679,7 +5697,7 @@
         <v>116</v>
       </c>
       <c r="K103" t="n">
-        <v>39.39393939393939</v>
+        <v>-12.5</v>
       </c>
       <c r="L103" t="n">
         <v>376.9</v>
@@ -5730,7 +5748,7 @@
         <v>116</v>
       </c>
       <c r="K104" t="n">
-        <v>35.48387096774194</v>
+        <v>-12.5</v>
       </c>
       <c r="L104" t="n">
         <v>376.7</v>
@@ -5781,7 +5799,7 @@
         <v>116</v>
       </c>
       <c r="K105" t="n">
-        <v>35.48387096774194</v>
+        <v>-20</v>
       </c>
       <c r="L105" t="n">
         <v>376.5</v>
@@ -5832,7 +5850,7 @@
         <v>116</v>
       </c>
       <c r="K106" t="n">
-        <v>35.48387096774194</v>
+        <v>-20</v>
       </c>
       <c r="L106" t="n">
         <v>376.2</v>
@@ -5883,7 +5901,7 @@
         <v>116</v>
       </c>
       <c r="K107" t="n">
-        <v>35.48387096774194</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L107" t="n">
         <v>375.9</v>
@@ -5934,7 +5952,7 @@
         <v>116</v>
       </c>
       <c r="K108" t="n">
-        <v>35.48387096774194</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>375.4</v>
@@ -5985,7 +6003,7 @@
         <v>117</v>
       </c>
       <c r="K109" t="n">
-        <v>25.92592592592592</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L109" t="n">
         <v>375.5</v>
@@ -6036,7 +6054,7 @@
         <v>119</v>
       </c>
       <c r="K110" t="n">
-        <v>4</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L110" t="n">
         <v>375.6</v>
@@ -6087,7 +6105,7 @@
         <v>122</v>
       </c>
       <c r="K111" t="n">
-        <v>18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>376.2</v>
@@ -6138,7 +6156,7 @@
         <v>122</v>
       </c>
       <c r="K112" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>376.4</v>
@@ -6189,7 +6207,7 @@
         <v>122</v>
       </c>
       <c r="K113" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>376.6</v>
@@ -6240,7 +6258,7 @@
         <v>125</v>
       </c>
       <c r="K114" t="n">
-        <v>-12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L114" t="n">
         <v>376.5</v>
@@ -6291,7 +6309,7 @@
         <v>125</v>
       </c>
       <c r="K115" t="n">
-        <v>-12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L115" t="n">
         <v>376.4</v>
@@ -6342,7 +6360,7 @@
         <v>129</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L116" t="n">
         <v>376.7</v>
@@ -6393,7 +6411,7 @@
         <v>131</v>
       </c>
       <c r="K117" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>377.2</v>
@@ -6444,7 +6462,7 @@
         <v>131</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L118" t="n">
         <v>377.7</v>
@@ -6495,7 +6513,7 @@
         <v>131</v>
       </c>
       <c r="K119" t="n">
-        <v>21.73913043478261</v>
+        <v>50</v>
       </c>
       <c r="L119" t="n">
         <v>378.1</v>
@@ -6546,7 +6564,7 @@
         <v>132</v>
       </c>
       <c r="K120" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L120" t="n">
         <v>378.6</v>
@@ -6597,7 +6615,7 @@
         <v>132</v>
       </c>
       <c r="K121" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L121" t="n">
         <v>378.8</v>
@@ -6648,7 +6666,7 @@
         <v>133</v>
       </c>
       <c r="K122" t="n">
-        <v>29.41176470588236</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L122" t="n">
         <v>379.1</v>
@@ -6699,7 +6717,7 @@
         <v>134</v>
       </c>
       <c r="K123" t="n">
-        <v>33.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L123" t="n">
         <v>379.5</v>
@@ -6750,7 +6768,7 @@
         <v>135</v>
       </c>
       <c r="K124" t="n">
-        <v>36.84210526315789</v>
+        <v>80</v>
       </c>
       <c r="L124" t="n">
         <v>380.3</v>
@@ -6801,7 +6819,7 @@
         <v>135</v>
       </c>
       <c r="K125" t="n">
-        <v>36.84210526315789</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L125" t="n">
         <v>381.1</v>
@@ -6852,7 +6870,7 @@
         <v>136</v>
       </c>
       <c r="K126" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L126" t="n">
         <v>381.6</v>
@@ -6903,7 +6921,7 @@
         <v>136</v>
       </c>
       <c r="K127" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L127" t="n">
         <v>381.9</v>
@@ -6954,7 +6972,7 @@
         <v>138</v>
       </c>
       <c r="K128" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L128" t="n">
         <v>382</v>
@@ -7005,7 +7023,7 @@
         <v>139</v>
       </c>
       <c r="K129" t="n">
-        <v>27.27272727272727</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L129" t="n">
         <v>382.2</v>
@@ -7056,7 +7074,7 @@
         <v>139</v>
       </c>
       <c r="K130" t="n">
-        <v>40</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L130" t="n">
         <v>382.5</v>
@@ -7107,7 +7125,7 @@
         <v>140</v>
       </c>
       <c r="K131" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L131" t="n">
         <v>382.7</v>
@@ -7158,7 +7176,7 @@
         <v>141</v>
       </c>
       <c r="K132" t="n">
-        <v>15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>382.7</v>
@@ -7209,7 +7227,7 @@
         <v>144</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L133" t="n">
         <v>382.3</v>
@@ -7260,7 +7278,7 @@
         <v>145</v>
       </c>
       <c r="K134" t="n">
-        <v>20</v>
+        <v>-40</v>
       </c>
       <c r="L134" t="n">
         <v>381.9</v>
@@ -7311,7 +7329,7 @@
         <v>146</v>
       </c>
       <c r="K135" t="n">
-        <v>23.80952380952381</v>
+        <v>-40</v>
       </c>
       <c r="L135" t="n">
         <v>381.6</v>
@@ -7362,7 +7380,7 @@
         <v>147</v>
       </c>
       <c r="K136" t="n">
-        <v>11.11111111111111</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L136" t="n">
         <v>381.3</v>
@@ -7413,7 +7431,7 @@
         <v>147</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L137" t="n">
         <v>381</v>
@@ -7464,7 +7482,7 @@
         <v>147</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L138" t="n">
         <v>380.9</v>
@@ -7515,7 +7533,7 @@
         <v>148</v>
       </c>
       <c r="K139" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L139" t="n">
         <v>380.8</v>
@@ -7566,7 +7584,7 @@
         <v>148</v>
       </c>
       <c r="K140" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>380.7</v>
@@ -7617,7 +7635,7 @@
         <v>149</v>
       </c>
       <c r="K141" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L141" t="n">
         <v>380.8</v>
@@ -7668,7 +7686,7 @@
         <v>149</v>
       </c>
       <c r="K142" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="L142" t="n">
         <v>381</v>
@@ -7719,7 +7737,7 @@
         <v>149</v>
       </c>
       <c r="K143" t="n">
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L143" t="n">
         <v>381.5</v>
@@ -7770,7 +7788,7 @@
         <v>149</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L144" t="n">
         <v>381.9</v>
@@ -7821,7 +7839,7 @@
         <v>151</v>
       </c>
       <c r="K145" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>382</v>
@@ -7872,7 +7890,7 @@
         <v>153</v>
       </c>
       <c r="K146" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>382.2</v>
@@ -7923,7 +7941,7 @@
         <v>153</v>
       </c>
       <c r="K147" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>382.4</v>
@@ -7974,7 +7992,7 @@
         <v>153</v>
       </c>
       <c r="K148" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L148" t="n">
         <v>382.6</v>
@@ -8025,7 +8043,7 @@
         <v>154</v>
       </c>
       <c r="K149" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>382.8</v>
@@ -8076,7 +8094,7 @@
         <v>154</v>
       </c>
       <c r="K150" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
         <v>383</v>
@@ -8127,7 +8145,7 @@
         <v>155</v>
       </c>
       <c r="K151" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>383</v>
@@ -8178,7 +8196,7 @@
         <v>156</v>
       </c>
       <c r="K152" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L152" t="n">
         <v>383.1</v>
@@ -8229,7 +8247,7 @@
         <v>156</v>
       </c>
       <c r="K153" t="n">
-        <v>50</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L153" t="n">
         <v>383.2</v>
@@ -8280,7 +8298,7 @@
         <v>156</v>
       </c>
       <c r="K154" t="n">
-        <v>45.45454545454545</v>
+        <v>60</v>
       </c>
       <c r="L154" t="n">
         <v>383.3</v>
@@ -8331,7 +8349,7 @@
         <v>158</v>
       </c>
       <c r="K155" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L155" t="n">
         <v>383.4</v>
@@ -8382,7 +8400,7 @@
         <v>158</v>
       </c>
       <c r="K156" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L156" t="n">
         <v>383.3</v>
@@ -8433,7 +8451,7 @@
         <v>160</v>
       </c>
       <c r="K157" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L157" t="n">
         <v>383.4</v>
@@ -8484,7 +8502,7 @@
         <v>162</v>
       </c>
       <c r="K158" t="n">
-        <v>6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L158" t="n">
         <v>383.3</v>
@@ -8535,7 +8553,7 @@
         <v>166</v>
       </c>
       <c r="K159" t="n">
-        <v>22.22222222222222</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L159" t="n">
         <v>383.5</v>
@@ -8586,7 +8604,7 @@
         <v>166</v>
       </c>
       <c r="K160" t="n">
-        <v>22.22222222222222</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L160" t="n">
         <v>383.7</v>
@@ -8637,7 +8655,7 @@
         <v>166</v>
       </c>
       <c r="K161" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L161" t="n">
         <v>384</v>
@@ -8688,7 +8706,7 @@
         <v>167</v>
       </c>
       <c r="K162" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L162" t="n">
         <v>384.1</v>
@@ -8739,7 +8757,7 @@
         <v>167</v>
       </c>
       <c r="K163" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L163" t="n">
         <v>384.2</v>
@@ -8790,7 +8808,7 @@
         <v>169</v>
       </c>
       <c r="K164" t="n">
-        <v>20</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L164" t="n">
         <v>384.5</v>
@@ -8841,7 +8859,7 @@
         <v>169</v>
       </c>
       <c r="K165" t="n">
-        <v>33.33333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L165" t="n">
         <v>385</v>
@@ -8892,7 +8910,7 @@
         <v>169</v>
       </c>
       <c r="K166" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>385.5</v>
@@ -8943,7 +8961,7 @@
         <v>171</v>
       </c>
       <c r="K167" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>385.6</v>
@@ -8994,7 +9012,7 @@
         <v>171</v>
       </c>
       <c r="K168" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L168" t="n">
         <v>385.9</v>
@@ -9045,7 +9063,7 @@
         <v>171</v>
       </c>
       <c r="K169" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L169" t="n">
         <v>385.8</v>
@@ -9096,7 +9114,7 @@
         <v>173</v>
       </c>
       <c r="K170" t="n">
-        <v>15.78947368421053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L170" t="n">
         <v>385.9</v>
@@ -9147,7 +9165,7 @@
         <v>175</v>
       </c>
       <c r="K171" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>385.8</v>
@@ -9198,7 +9216,7 @@
         <v>178</v>
       </c>
       <c r="K172" t="n">
-        <v>18.18181818181818</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L172" t="n">
         <v>386.1</v>
@@ -9249,7 +9267,7 @@
         <v>178</v>
       </c>
       <c r="K173" t="n">
-        <v>18.18181818181818</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L173" t="n">
         <v>386.4</v>
@@ -9300,7 +9318,7 @@
         <v>179</v>
       </c>
       <c r="K174" t="n">
-        <v>21.73913043478261</v>
+        <v>20</v>
       </c>
       <c r="L174" t="n">
         <v>386.6</v>
@@ -9351,7 +9369,7 @@
         <v>181</v>
       </c>
       <c r="K175" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>386.6</v>
@@ -9402,7 +9420,7 @@
         <v>182</v>
       </c>
       <c r="K176" t="n">
-        <v>25</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L176" t="n">
         <v>386.7</v>
@@ -9453,7 +9471,7 @@
         <v>182</v>
       </c>
       <c r="K177" t="n">
-        <v>18.18181818181818</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L177" t="n">
         <v>387</v>
@@ -9504,7 +9522,7 @@
         <v>184</v>
       </c>
       <c r="K178" t="n">
-        <v>18.18181818181818</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L178" t="n">
         <v>387.1</v>
@@ -9555,7 +9573,7 @@
         <v>185</v>
       </c>
       <c r="K179" t="n">
-        <v>-5.263157894736842</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L179" t="n">
         <v>387.1</v>
@@ -9606,7 +9624,7 @@
         <v>185</v>
       </c>
       <c r="K180" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>386.9</v>
@@ -9657,7 +9675,7 @@
         <v>186</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L181" t="n">
         <v>387</v>
@@ -9708,7 +9726,7 @@
         <v>186</v>
       </c>
       <c r="K182" t="n">
-        <v>5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L182" t="n">
         <v>386.8</v>
@@ -9759,7 +9777,7 @@
         <v>188</v>
       </c>
       <c r="K183" t="n">
-        <v>14.28571428571428</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L183" t="n">
         <v>386.8</v>
@@ -9861,7 +9879,7 @@
         <v>189</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L185" t="n">
         <v>386.6</v>
@@ -9912,7 +9930,7 @@
         <v>189</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L186" t="n">
         <v>386.5</v>
@@ -9969,7 +9987,7 @@
         <v>191</v>
       </c>
       <c r="K187" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L187" t="n">
         <v>386.6</v>
@@ -10030,7 +10048,7 @@
         <v>191</v>
       </c>
       <c r="K188" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L188" t="n">
         <v>386.9</v>
@@ -10089,7 +10107,7 @@
         <v>191</v>
       </c>
       <c r="K189" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L189" t="n">
         <v>387.3</v>
@@ -10150,7 +10168,7 @@
         <v>193</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L190" t="n">
         <v>387.5</v>
@@ -10209,7 +10227,7 @@
         <v>195</v>
       </c>
       <c r="K191" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>387.8</v>
@@ -10272,7 +10290,7 @@
         <v>195</v>
       </c>
       <c r="K192" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L192" t="n">
         <v>388.1</v>
@@ -10333,7 +10351,7 @@
         <v>196</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L193" t="n">
         <v>388.1</v>
@@ -10390,7 +10408,7 @@
         <v>196</v>
       </c>
       <c r="K194" t="n">
-        <v>-5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>388.2</v>
@@ -10447,7 +10465,7 @@
         <v>198</v>
       </c>
       <c r="K195" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L195" t="n">
         <v>388.1</v>
@@ -10504,7 +10522,7 @@
         <v>201</v>
       </c>
       <c r="K196" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>388.3</v>
@@ -10561,7 +10579,7 @@
         <v>204</v>
       </c>
       <c r="K197" t="n">
-        <v>-9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L197" t="n">
         <v>388</v>
@@ -10618,7 +10636,7 @@
         <v>207</v>
       </c>
       <c r="K198" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>388</v>
@@ -10675,7 +10693,7 @@
         <v>207</v>
       </c>
       <c r="K199" t="n">
-        <v>18.18181818181818</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L199" t="n">
         <v>388</v>
@@ -10732,7 +10750,7 @@
         <v>211</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L200" t="n">
         <v>387.8</v>
@@ -10789,7 +10807,7 @@
         <v>212</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L201" t="n">
         <v>387.5</v>
@@ -10846,7 +10864,7 @@
         <v>213</v>
       </c>
       <c r="K202" t="n">
-        <v>3.703703703703703</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L202" t="n">
         <v>387.3</v>
@@ -10903,7 +10921,7 @@
         <v>214</v>
       </c>
       <c r="K203" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L203" t="n">
         <v>387.1</v>
@@ -10960,7 +10978,7 @@
         <v>216</v>
       </c>
       <c r="K204" t="n">
-        <v>3.703703703703703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L204" t="n">
         <v>387.1</v>
@@ -11017,7 +11035,7 @@
         <v>216</v>
       </c>
       <c r="K205" t="n">
-        <v>3.703703703703703</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L205" t="n">
         <v>387.3</v>
@@ -11068,7 +11086,7 @@
         <v>216</v>
       </c>
       <c r="K206" t="n">
-        <v>3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L206" t="n">
         <v>387.2</v>
@@ -11170,7 +11188,7 @@
         <v>220</v>
       </c>
       <c r="K208" t="n">
-        <v>-10.3448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L208" t="n">
         <v>387.2</v>
@@ -11221,7 +11239,7 @@
         <v>221</v>
       </c>
       <c r="K209" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>386.8</v>
@@ -11272,7 +11290,7 @@
         <v>222</v>
       </c>
       <c r="K210" t="n">
-        <v>-3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>386.9</v>
@@ -11374,7 +11392,7 @@
         <v>225</v>
       </c>
       <c r="K212" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L212" t="n">
         <v>386.5</v>
@@ -11425,7 +11443,7 @@
         <v>225</v>
       </c>
       <c r="K213" t="n">
-        <v>-17.24137931034483</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L213" t="n">
         <v>386.2</v>
@@ -11476,7 +11494,7 @@
         <v>225</v>
       </c>
       <c r="K214" t="n">
-        <v>-17.24137931034483</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L214" t="n">
         <v>385.7</v>
@@ -11527,7 +11545,7 @@
         <v>225</v>
       </c>
       <c r="K215" t="n">
-        <v>-11.11111111111111</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L215" t="n">
         <v>385.2</v>
@@ -11578,7 +11596,7 @@
         <v>228</v>
       </c>
       <c r="K216" t="n">
-        <v>-33.33333333333333</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L216" t="n">
         <v>384.4</v>
@@ -11629,7 +11647,7 @@
         <v>229</v>
       </c>
       <c r="K217" t="n">
-        <v>-28</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L217" t="n">
         <v>383.4</v>
@@ -11680,7 +11698,7 @@
         <v>231</v>
       </c>
       <c r="K218" t="n">
-        <v>-33.33333333333333</v>
+        <v>-40</v>
       </c>
       <c r="L218" t="n">
         <v>382.9</v>
@@ -11731,7 +11749,7 @@
         <v>234</v>
       </c>
       <c r="K219" t="n">
-        <v>-40.74074074074074</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L219" t="n">
         <v>382.2</v>
@@ -11782,7 +11800,7 @@
         <v>235</v>
       </c>
       <c r="K220" t="n">
-        <v>-33.33333333333333</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L220" t="n">
         <v>381.3</v>
@@ -11833,7 +11851,7 @@
         <v>237</v>
       </c>
       <c r="K221" t="n">
-        <v>-28</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>380.6</v>
@@ -11884,7 +11902,7 @@
         <v>238</v>
       </c>
       <c r="K222" t="n">
-        <v>-28</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L222" t="n">
         <v>380.3</v>
@@ -11935,7 +11953,7 @@
         <v>240</v>
       </c>
       <c r="K223" t="n">
-        <v>-30.76923076923077</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>379.8</v>
@@ -11986,7 +12004,7 @@
         <v>241</v>
       </c>
       <c r="K224" t="n">
-        <v>-44</v>
+        <v>-37.5</v>
       </c>
       <c r="L224" t="n">
         <v>379.2</v>
@@ -12037,7 +12055,7 @@
         <v>243</v>
       </c>
       <c r="K225" t="n">
-        <v>-48.14814814814815</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L225" t="n">
         <v>378.4</v>
@@ -12088,7 +12106,7 @@
         <v>245</v>
       </c>
       <c r="K226" t="n">
-        <v>-37.93103448275862</v>
+        <v>-12.5</v>
       </c>
       <c r="L226" t="n">
         <v>378.1</v>
@@ -12139,7 +12157,7 @@
         <v>247</v>
       </c>
       <c r="K227" t="n">
-        <v>-33.33333333333333</v>
+        <v>-12.5</v>
       </c>
       <c r="L227" t="n">
         <v>378.1</v>
@@ -12190,7 +12208,7 @@
         <v>249</v>
       </c>
       <c r="K228" t="n">
-        <v>-31.03448275862069</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L228" t="n">
         <v>377.7</v>
@@ -12241,7 +12259,7 @@
         <v>249</v>
       </c>
       <c r="K229" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>377.6</v>
@@ -12292,7 +12310,7 @@
         <v>250</v>
       </c>
       <c r="K230" t="n">
-        <v>-28.57142857142857</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L230" t="n">
         <v>377.7</v>
@@ -12343,7 +12361,7 @@
         <v>251</v>
       </c>
       <c r="K231" t="n">
-        <v>-31.03448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L231" t="n">
         <v>377.5</v>
@@ -12394,7 +12412,7 @@
         <v>252</v>
       </c>
       <c r="K232" t="n">
-        <v>-18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>377.3</v>
@@ -12445,7 +12463,7 @@
         <v>253</v>
       </c>
       <c r="K233" t="n">
-        <v>-14.28571428571428</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L233" t="n">
         <v>377.4</v>
@@ -12496,7 +12514,7 @@
         <v>254</v>
       </c>
       <c r="K234" t="n">
-        <v>-17.24137931034483</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L234" t="n">
         <v>377.5</v>
@@ -12547,7 +12565,7 @@
         <v>255</v>
       </c>
       <c r="K235" t="n">
-        <v>-13.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L235" t="n">
         <v>377.9</v>
@@ -12598,7 +12616,7 @@
         <v>255</v>
       </c>
       <c r="K236" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>378.1</v>
@@ -12649,7 +12667,7 @@
         <v>256</v>
       </c>
       <c r="K237" t="n">
-        <v>3.703703703703703</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L237" t="n">
         <v>378.2</v>
@@ -12700,7 +12718,7 @@
         <v>256</v>
       </c>
       <c r="K238" t="n">
-        <v>-4</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L238" t="n">
         <v>378.5</v>
@@ -12751,7 +12769,7 @@
         <v>257</v>
       </c>
       <c r="K239" t="n">
-        <v>4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L239" t="n">
         <v>378.7</v>
@@ -12802,7 +12820,7 @@
         <v>259</v>
       </c>
       <c r="K240" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L240" t="n">
         <v>379</v>
@@ -12853,7 +12871,7 @@
         <v>259</v>
       </c>
       <c r="K241" t="n">
-        <v>9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L241" t="n">
         <v>379.4</v>
@@ -12904,7 +12922,7 @@
         <v>260</v>
       </c>
       <c r="K242" t="n">
-        <v>9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L242" t="n">
         <v>379.8</v>
@@ -12955,7 +12973,7 @@
         <v>260</v>
       </c>
       <c r="K243" t="n">
-        <v>20</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L243" t="n">
         <v>380.1</v>
@@ -13006,7 +13024,7 @@
         <v>260</v>
       </c>
       <c r="K244" t="n">
-        <v>26.31578947368421</v>
+        <v>60</v>
       </c>
       <c r="L244" t="n">
         <v>380.5</v>
@@ -13057,7 +13075,7 @@
         <v>261</v>
       </c>
       <c r="K245" t="n">
-        <v>44.44444444444444</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L245" t="n">
         <v>380.9</v>
@@ -13108,7 +13126,7 @@
         <v>263</v>
       </c>
       <c r="K246" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L246" t="n">
         <v>381.1</v>
@@ -13159,7 +13177,7 @@
         <v>264</v>
       </c>
       <c r="K247" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L247" t="n">
         <v>381.3</v>
@@ -13210,7 +13228,7 @@
         <v>265</v>
       </c>
       <c r="K248" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L248" t="n">
         <v>381.6</v>
@@ -13261,7 +13279,7 @@
         <v>266</v>
       </c>
       <c r="K249" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>381.9</v>
@@ -13363,7 +13381,7 @@
         <v>270</v>
       </c>
       <c r="K251" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>382.3</v>
@@ -13414,7 +13432,7 @@
         <v>270</v>
       </c>
       <c r="K252" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>382.3</v>
@@ -13465,7 +13483,7 @@
         <v>271</v>
       </c>
       <c r="K253" t="n">
-        <v>22.22222222222222</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L253" t="n">
         <v>382.4</v>
@@ -13516,7 +13534,7 @@
         <v>273</v>
       </c>
       <c r="K254" t="n">
-        <v>15.78947368421053</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L254" t="n">
         <v>382.3</v>
@@ -13567,7 +13585,7 @@
         <v>275</v>
       </c>
       <c r="K255" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L255" t="n">
         <v>382.3</v>
@@ -13618,7 +13636,7 @@
         <v>277</v>
       </c>
       <c r="K256" t="n">
-        <v>9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L256" t="n">
         <v>382.3</v>
@@ -13669,7 +13687,7 @@
         <v>277</v>
       </c>
       <c r="K257" t="n">
-        <v>4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L257" t="n">
         <v>382.2</v>
@@ -13720,7 +13738,7 @@
         <v>278</v>
       </c>
       <c r="K258" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>382.1</v>
@@ -13771,7 +13789,7 @@
         <v>280</v>
       </c>
       <c r="K259" t="n">
-        <v>4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>381.9</v>
@@ -13822,7 +13840,7 @@
         <v>280</v>
       </c>
       <c r="K260" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L260" t="n">
         <v>381.5</v>
@@ -13873,7 +13891,7 @@
         <v>280</v>
       </c>
       <c r="K261" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L261" t="n">
         <v>381.3</v>
@@ -13924,7 +13942,7 @@
         <v>281</v>
       </c>
       <c r="K262" t="n">
-        <v>-14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L262" t="n">
         <v>381</v>
@@ -13975,7 +13993,7 @@
         <v>281</v>
       </c>
       <c r="K263" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L263" t="n">
         <v>380.6</v>
@@ -14026,7 +14044,7 @@
         <v>281</v>
       </c>
       <c r="K264" t="n">
-        <v>-14.28571428571428</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L264" t="n">
         <v>380.4</v>
@@ -14077,7 +14095,7 @@
         <v>282</v>
       </c>
       <c r="K265" t="n">
-        <v>-23.80952380952381</v>
+        <v>-60</v>
       </c>
       <c r="L265" t="n">
         <v>379.9</v>
@@ -14128,7 +14146,7 @@
         <v>283</v>
       </c>
       <c r="K266" t="n">
-        <v>-20</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L266" t="n">
         <v>379.5</v>
@@ -14179,7 +14197,7 @@
         <v>283</v>
       </c>
       <c r="K267" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L267" t="n">
         <v>379.1</v>
@@ -14230,7 +14248,7 @@
         <v>284</v>
       </c>
       <c r="K268" t="n">
-        <v>-36.84210526315789</v>
+        <v>-100</v>
       </c>
       <c r="L268" t="n">
         <v>378.5</v>
@@ -14281,7 +14299,7 @@
         <v>284</v>
       </c>
       <c r="K269" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L269" t="n">
         <v>378.1</v>
@@ -14383,7 +14401,7 @@
         <v>288</v>
       </c>
       <c r="K271" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L271" t="n">
         <v>377.9</v>
@@ -14434,7 +14452,7 @@
         <v>288</v>
       </c>
       <c r="K272" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L272" t="n">
         <v>378</v>
@@ -14485,7 +14503,7 @@
         <v>289</v>
       </c>
       <c r="K273" t="n">
-        <v>-11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L273" t="n">
         <v>378.2</v>
@@ -14536,7 +14554,7 @@
         <v>290</v>
       </c>
       <c r="K274" t="n">
-        <v>5.88235294117647</v>
+        <v>50</v>
       </c>
       <c r="L274" t="n">
         <v>378.5</v>
@@ -14587,7 +14605,7 @@
         <v>291</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L275" t="n">
         <v>379</v>
@@ -14638,7 +14656,7 @@
         <v>291</v>
       </c>
       <c r="K276" t="n">
-        <v>14.28571428571428</v>
+        <v>75</v>
       </c>
       <c r="L276" t="n">
         <v>379.6</v>
@@ -14689,7 +14707,7 @@
         <v>291</v>
       </c>
       <c r="K277" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L277" t="n">
         <v>380.2</v>
@@ -14740,7 +14758,7 @@
         <v>292</v>
       </c>
       <c r="K278" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L278" t="n">
         <v>381</v>
@@ -14791,7 +14809,7 @@
         <v>292</v>
       </c>
       <c r="K279" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L279" t="n">
         <v>381.8</v>
@@ -14842,7 +14860,7 @@
         <v>293</v>
       </c>
       <c r="K280" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L280" t="n">
         <v>382.5</v>
@@ -14893,7 +14911,7 @@
         <v>294</v>
       </c>
       <c r="K281" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L281" t="n">
         <v>383.1</v>
@@ -14944,7 +14962,7 @@
         <v>295</v>
       </c>
       <c r="K282" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L282" t="n">
         <v>383.6</v>
@@ -14995,7 +15013,7 @@
         <v>295</v>
       </c>
       <c r="K283" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L283" t="n">
         <v>384</v>
@@ -15046,7 +15064,7 @@
         <v>296</v>
       </c>
       <c r="K284" t="n">
-        <v>46.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L284" t="n">
         <v>384.4</v>
@@ -15097,7 +15115,7 @@
         <v>297</v>
       </c>
       <c r="K285" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L285" t="n">
         <v>384.6</v>
@@ -15148,7 +15166,7 @@
         <v>297</v>
       </c>
       <c r="K286" t="n">
-        <v>57.14285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>384.8</v>
@@ -15199,7 +15217,7 @@
         <v>298</v>
       </c>
       <c r="K287" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>385.1</v>
@@ -15250,7 +15268,7 @@
         <v>298</v>
       </c>
       <c r="K288" t="n">
-        <v>71.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>385.3</v>
@@ -15301,7 +15319,7 @@
         <v>301</v>
       </c>
       <c r="K289" t="n">
-        <v>41.17647058823529</v>
+        <v>-25</v>
       </c>
       <c r="L289" t="n">
         <v>385.2</v>
@@ -15352,7 +15370,7 @@
         <v>301</v>
       </c>
       <c r="K290" t="n">
-        <v>33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L290" t="n">
         <v>385</v>
@@ -15403,7 +15421,7 @@
         <v>306</v>
       </c>
       <c r="K291" t="n">
-        <v>44.44444444444444</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L291" t="n">
         <v>385.2</v>
@@ -15454,7 +15472,7 @@
         <v>307</v>
       </c>
       <c r="K292" t="n">
-        <v>47.36842105263158</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L292" t="n">
         <v>385.6</v>
@@ -15505,7 +15523,7 @@
         <v>308</v>
       </c>
       <c r="K293" t="n">
-        <v>36.84210526315789</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L293" t="n">
         <v>385.9</v>
@@ -15556,7 +15574,7 @@
         <v>308</v>
       </c>
       <c r="K294" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L294" t="n">
         <v>386.1</v>
@@ -15607,7 +15625,7 @@
         <v>311</v>
       </c>
       <c r="K295" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>386.1</v>
@@ -15658,7 +15676,7 @@
         <v>314</v>
       </c>
       <c r="K296" t="n">
-        <v>21.73913043478261</v>
+        <v>12.5</v>
       </c>
       <c r="L296" t="n">
         <v>386.4</v>
@@ -15709,7 +15727,7 @@
         <v>319</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L297" t="n">
         <v>386.1</v>
@@ -15760,7 +15778,7 @@
         <v>320</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L298" t="n">
         <v>385.9</v>
@@ -15811,7 +15829,7 @@
         <v>321</v>
       </c>
       <c r="K299" t="n">
-        <v>3.448275862068965</v>
+        <v>10</v>
       </c>
       <c r="L299" t="n">
         <v>386.1</v>
@@ -15862,7 +15880,7 @@
         <v>323</v>
       </c>
       <c r="K300" t="n">
-        <v>6.666666666666667</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L300" t="n">
         <v>386.5</v>
@@ -15913,7 +15931,7 @@
         <v>323</v>
       </c>
       <c r="K301" t="n">
-        <v>3.448275862068965</v>
+        <v>-12.5</v>
       </c>
       <c r="L301" t="n">
         <v>386.4</v>
@@ -15964,7 +15982,7 @@
         <v>323</v>
       </c>
       <c r="K302" t="n">
-        <v>7.142857142857142</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L302" t="n">
         <v>386.2</v>
@@ -16015,7 +16033,7 @@
         <v>324</v>
       </c>
       <c r="K303" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L303" t="n">
         <v>386.2</v>
@@ -16066,7 +16084,7 @@
         <v>325</v>
       </c>
       <c r="K304" t="n">
-        <v>3.448275862068965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L304" t="n">
         <v>386.1</v>
@@ -16117,7 +16135,7 @@
         <v>326</v>
       </c>
       <c r="K305" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>386.4</v>
@@ -16168,7 +16186,7 @@
         <v>328</v>
       </c>
       <c r="K306" t="n">
-        <v>16.12903225806452</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L306" t="n">
         <v>386.6</v>
@@ -16219,7 +16237,7 @@
         <v>329</v>
       </c>
       <c r="K307" t="n">
-        <v>16.12903225806452</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L307" t="n">
         <v>387.4</v>
@@ -16270,7 +16288,7 @@
         <v>331</v>
       </c>
       <c r="K308" t="n">
-        <v>9.090909090909092</v>
+        <v>40</v>
       </c>
       <c r="L308" t="n">
         <v>387.9</v>
@@ -16321,7 +16339,7 @@
         <v>331</v>
       </c>
       <c r="K309" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L309" t="n">
         <v>388.3</v>
@@ -16372,7 +16390,7 @@
         <v>333</v>
       </c>
       <c r="K310" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L310" t="n">
         <v>388.7</v>
@@ -16423,7 +16441,7 @@
         <v>333</v>
       </c>
       <c r="K311" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L311" t="n">
         <v>389.1</v>
@@ -16474,7 +16492,7 @@
         <v>334</v>
       </c>
       <c r="K312" t="n">
-        <v>3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L312" t="n">
         <v>389.4</v>
@@ -16525,7 +16543,7 @@
         <v>338</v>
       </c>
       <c r="K313" t="n">
-        <v>-6.666666666666667</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L313" t="n">
         <v>389.2</v>
@@ -16576,7 +16594,7 @@
         <v>338</v>
       </c>
       <c r="K314" t="n">
-        <v>-6.666666666666667</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L314" t="n">
         <v>389.1</v>
@@ -16627,7 +16645,7 @@
         <v>338</v>
       </c>
       <c r="K315" t="n">
-        <v>3.703703703703703</v>
+        <v>-40</v>
       </c>
       <c r="L315" t="n">
         <v>388.9</v>
@@ -16678,7 +16696,7 @@
         <v>338</v>
       </c>
       <c r="K316" t="n">
-        <v>-8.333333333333332</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L316" t="n">
         <v>388.5</v>
@@ -16729,7 +16747,7 @@
         <v>338</v>
       </c>
       <c r="K317" t="n">
-        <v>15.78947368421053</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L317" t="n">
         <v>388</v>
@@ -16780,7 +16798,7 @@
         <v>339</v>
       </c>
       <c r="K318" t="n">
-        <v>15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L318" t="n">
         <v>387.8</v>
@@ -16831,7 +16849,7 @@
         <v>341</v>
       </c>
       <c r="K319" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="L319" t="n">
         <v>387.8</v>
@@ -16882,7 +16900,7 @@
         <v>341</v>
       </c>
       <c r="K320" t="n">
-        <v>11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L320" t="n">
         <v>387.6</v>
@@ -16933,7 +16951,7 @@
         <v>342</v>
       </c>
       <c r="K321" t="n">
-        <v>5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L321" t="n">
         <v>387.3</v>
@@ -16984,7 +17002,7 @@
         <v>344</v>
       </c>
       <c r="K322" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>386.9</v>
@@ -17035,7 +17053,7 @@
         <v>344</v>
       </c>
       <c r="K323" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>386.9</v>
@@ -17086,7 +17104,7 @@
         <v>345</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L324" t="n">
         <v>387</v>
@@ -17137,7 +17155,7 @@
         <v>346</v>
       </c>
       <c r="K325" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>387</v>
@@ -17188,7 +17206,7 @@
         <v>346</v>
       </c>
       <c r="K326" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>387</v>
@@ -17239,7 +17257,7 @@
         <v>348</v>
       </c>
       <c r="K327" t="n">
-        <v>-36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L327" t="n">
         <v>386.8</v>
@@ -17290,7 +17308,7 @@
         <v>350</v>
       </c>
       <c r="K328" t="n">
-        <v>-36.84210526315789</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L328" t="n">
         <v>386.3</v>
@@ -17341,7 +17359,7 @@
         <v>351</v>
       </c>
       <c r="K329" t="n">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="L329" t="n">
         <v>385.7</v>
@@ -17392,7 +17410,7 @@
         <v>354</v>
       </c>
       <c r="K330" t="n">
-        <v>-23.80952380952381</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L330" t="n">
         <v>385.4</v>
@@ -17443,7 +17461,7 @@
         <v>355</v>
       </c>
       <c r="K331" t="n">
-        <v>-27.27272727272727</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L331" t="n">
         <v>385.1</v>
@@ -17494,7 +17512,7 @@
         <v>357</v>
       </c>
       <c r="K332" t="n">
-        <v>-30.43478260869566</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L332" t="n">
         <v>384.8</v>
@@ -17545,7 +17563,7 @@
         <v>357</v>
       </c>
       <c r="K333" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L333" t="n">
         <v>384.5</v>
@@ -17596,7 +17614,7 @@
         <v>357</v>
       </c>
       <c r="K334" t="n">
-        <v>-15.78947368421053</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L334" t="n">
         <v>384.1</v>
@@ -17647,7 +17665,7 @@
         <v>359</v>
       </c>
       <c r="K335" t="n">
-        <v>-4.761904761904762</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L335" t="n">
         <v>384</v>
@@ -17698,7 +17716,7 @@
         <v>359</v>
       </c>
       <c r="K336" t="n">
-        <v>-4.761904761904762</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L336" t="n">
         <v>383.9</v>
@@ -17749,7 +17767,7 @@
         <v>362</v>
       </c>
       <c r="K337" t="n">
-        <v>8.333333333333332</v>
+        <v>50</v>
       </c>
       <c r="L337" t="n">
         <v>384.3</v>
@@ -17800,7 +17818,7 @@
         <v>365</v>
       </c>
       <c r="K338" t="n">
-        <v>15.38461538461539</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L338" t="n">
         <v>385.2</v>
@@ -17851,7 +17869,7 @@
         <v>365</v>
       </c>
       <c r="K339" t="n">
-        <v>8.333333333333332</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L339" t="n">
         <v>386</v>
@@ -17902,7 +17920,7 @@
         <v>365</v>
       </c>
       <c r="K340" t="n">
-        <v>8.333333333333332</v>
+        <v>60</v>
       </c>
       <c r="L340" t="n">
         <v>386.5</v>
@@ -17953,7 +17971,7 @@
         <v>366</v>
       </c>
       <c r="K341" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L341" t="n">
         <v>387.2</v>
@@ -18004,7 +18022,7 @@
         <v>366</v>
       </c>
       <c r="K342" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L342" t="n">
         <v>388.1</v>
@@ -18055,7 +18073,7 @@
         <v>368</v>
       </c>
       <c r="K343" t="n">
-        <v>16.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L343" t="n">
         <v>388.8</v>
@@ -18106,7 +18124,7 @@
         <v>369</v>
       </c>
       <c r="K344" t="n">
-        <v>8.333333333333332</v>
+        <v>40</v>
       </c>
       <c r="L344" t="n">
         <v>389.4</v>
@@ -18157,7 +18175,7 @@
         <v>369</v>
       </c>
       <c r="K345" t="n">
-        <v>13.04347826086956</v>
+        <v>40</v>
       </c>
       <c r="L345" t="n">
         <v>389.8</v>
@@ -18208,7 +18226,7 @@
         <v>372</v>
       </c>
       <c r="K346" t="n">
-        <v>23.07692307692308</v>
+        <v>40</v>
       </c>
       <c r="L346" t="n">
         <v>390.5</v>
@@ -18259,7 +18277,7 @@
         <v>372</v>
       </c>
       <c r="K347" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L347" t="n">
         <v>390.9</v>
@@ -18310,7 +18328,7 @@
         <v>373</v>
       </c>
       <c r="K348" t="n">
-        <v>39.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>390.9</v>
@@ -18361,7 +18379,7 @@
         <v>373</v>
       </c>
       <c r="K349" t="n">
-        <v>36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>390.9</v>
@@ -18412,7 +18430,7 @@
         <v>374</v>
       </c>
       <c r="K350" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>391</v>
@@ -18463,7 +18481,7 @@
         <v>374</v>
       </c>
       <c r="K351" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>391</v>
@@ -18514,7 +18532,7 @@
         <v>376</v>
       </c>
       <c r="K352" t="n">
-        <v>57.89473684210527</v>
+        <v>50</v>
       </c>
       <c r="L352" t="n">
         <v>391.2</v>
@@ -18565,7 +18583,7 @@
         <v>376</v>
       </c>
       <c r="K353" t="n">
-        <v>57.89473684210527</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L353" t="n">
         <v>391.6</v>
@@ -18616,7 +18634,7 @@
         <v>378</v>
       </c>
       <c r="K354" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>391.9</v>
@@ -18667,7 +18685,7 @@
         <v>379</v>
       </c>
       <c r="K355" t="n">
-        <v>40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L355" t="n">
         <v>392.3</v>
@@ -18718,7 +18736,7 @@
         <v>379</v>
       </c>
       <c r="K356" t="n">
-        <v>40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L356" t="n">
         <v>392.4</v>
@@ -18769,7 +18787,7 @@
         <v>380</v>
       </c>
       <c r="K357" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L357" t="n">
         <v>392.6</v>
@@ -18820,7 +18838,7 @@
         <v>382</v>
       </c>
       <c r="K358" t="n">
-        <v>29.41176470588236</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L358" t="n">
         <v>393.1</v>
@@ -18871,7 +18889,7 @@
         <v>384</v>
       </c>
       <c r="K359" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L359" t="n">
         <v>393.4</v>
@@ -18922,7 +18940,7 @@
         <v>385</v>
       </c>
       <c r="K360" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L360" t="n">
         <v>393.7</v>
@@ -18973,7 +18991,7 @@
         <v>385</v>
       </c>
       <c r="K361" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L361" t="n">
         <v>394</v>
@@ -19024,7 +19042,7 @@
         <v>386</v>
       </c>
       <c r="K362" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>394</v>
@@ -19075,7 +19093,7 @@
         <v>386</v>
       </c>
       <c r="K363" t="n">
-        <v>22.22222222222222</v>
+        <v>25</v>
       </c>
       <c r="L363" t="n">
         <v>394</v>
@@ -19126,7 +19144,7 @@
         <v>386</v>
       </c>
       <c r="K364" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L364" t="n">
         <v>394.2</v>
@@ -19177,7 +19195,7 @@
         <v>387</v>
       </c>
       <c r="K365" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>394.2</v>
@@ -19228,7 +19246,7 @@
         <v>390</v>
       </c>
       <c r="K366" t="n">
-        <v>-11.11111111111111</v>
+        <v>-40</v>
       </c>
       <c r="L366" t="n">
         <v>393.9</v>
@@ -19279,7 +19297,7 @@
         <v>393</v>
       </c>
       <c r="K367" t="n">
-        <v>-23.80952380952381</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L367" t="n">
         <v>393.2</v>
@@ -19330,7 +19348,7 @@
         <v>394</v>
       </c>
       <c r="K368" t="n">
-        <v>-23.80952380952381</v>
+        <v>-80</v>
       </c>
       <c r="L368" t="n">
         <v>392.2</v>
@@ -19381,7 +19399,7 @@
         <v>394</v>
       </c>
       <c r="K369" t="n">
-        <v>-23.80952380952381</v>
+        <v>-100</v>
       </c>
       <c r="L369" t="n">
         <v>391.4</v>
@@ -19432,7 +19450,7 @@
         <v>395</v>
       </c>
       <c r="K370" t="n">
-        <v>-23.80952380952381</v>
+        <v>-80</v>
       </c>
       <c r="L370" t="n">
         <v>390.6</v>
@@ -19483,7 +19501,7 @@
         <v>396</v>
       </c>
       <c r="K371" t="n">
-        <v>-27.27272727272727</v>
+        <v>-80</v>
       </c>
       <c r="L371" t="n">
         <v>389.7</v>
@@ -19534,7 +19552,7 @@
         <v>396</v>
       </c>
       <c r="K372" t="n">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="L372" t="n">
         <v>388.9</v>
@@ -19585,7 +19603,7 @@
         <v>396</v>
       </c>
       <c r="K373" t="n">
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="L373" t="n">
         <v>388.1</v>
@@ -19636,7 +19654,7 @@
         <v>396</v>
       </c>
       <c r="K374" t="n">
-        <v>-33.33333333333333</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L374" t="n">
         <v>387.3</v>
@@ -19687,7 +19705,7 @@
         <v>397</v>
       </c>
       <c r="K375" t="n">
-        <v>-44.44444444444444</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L375" t="n">
         <v>386.5</v>
@@ -19738,7 +19756,7 @@
         <v>399</v>
       </c>
       <c r="K376" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>386.2</v>
@@ -19789,7 +19807,7 @@
         <v>399</v>
       </c>
       <c r="K377" t="n">
-        <v>-36.84210526315789</v>
+        <v>20</v>
       </c>
       <c r="L377" t="n">
         <v>386.2</v>
@@ -19840,7 +19858,7 @@
         <v>400</v>
       </c>
       <c r="K378" t="n">
-        <v>-55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>386.2</v>
@@ -19891,7 +19909,7 @@
         <v>401</v>
       </c>
       <c r="K379" t="n">
-        <v>-41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>386.3</v>
@@ -19942,7 +19960,7 @@
         <v>401</v>
       </c>
       <c r="K380" t="n">
-        <v>-50</v>
+        <v>20</v>
       </c>
       <c r="L380" t="n">
         <v>386.3</v>
@@ -19993,7 +20011,7 @@
         <v>404</v>
       </c>
       <c r="K381" t="n">
-        <v>-26.31578947368421</v>
+        <v>50</v>
       </c>
       <c r="L381" t="n">
         <v>386.7</v>
@@ -20044,7 +20062,7 @@
         <v>407</v>
       </c>
       <c r="K382" t="n">
-        <v>-4.761904761904762</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L382" t="n">
         <v>387.4</v>
@@ -20095,7 +20113,7 @@
         <v>407</v>
       </c>
       <c r="K383" t="n">
-        <v>-4.761904761904762</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L383" t="n">
         <v>388.1</v>
@@ -20146,7 +20164,7 @@
         <v>407</v>
       </c>
       <c r="K384" t="n">
-        <v>-4.761904761904762</v>
+        <v>80</v>
       </c>
       <c r="L384" t="n">
         <v>388.8</v>
@@ -20197,7 +20215,7 @@
         <v>407</v>
       </c>
       <c r="K385" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L385" t="n">
         <v>389.6</v>
@@ -20248,7 +20266,7 @@
         <v>409</v>
       </c>
       <c r="K386" t="n">
-        <v>26.31578947368421</v>
+        <v>80</v>
       </c>
       <c r="L386" t="n">
         <v>390.4</v>
@@ -20299,7 +20317,7 @@
         <v>409</v>
       </c>
       <c r="K387" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L387" t="n">
         <v>391.2</v>
@@ -20350,7 +20368,7 @@
         <v>411</v>
       </c>
       <c r="K388" t="n">
-        <v>64.70588235294117</v>
+        <v>100</v>
       </c>
       <c r="L388" t="n">
         <v>392.3</v>
@@ -20401,7 +20419,7 @@
         <v>415</v>
       </c>
       <c r="K389" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L389" t="n">
         <v>392.9</v>
@@ -20452,7 +20470,7 @@
         <v>417</v>
       </c>
       <c r="K390" t="n">
-        <v>36.36363636363637</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L390" t="n">
         <v>393.7</v>
@@ -20503,7 +20521,7 @@
         <v>418</v>
       </c>
       <c r="K391" t="n">
-        <v>45.45454545454545</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L391" t="n">
         <v>394.3</v>
@@ -20554,7 +20572,7 @@
         <v>419</v>
       </c>
       <c r="K392" t="n">
-        <v>39.1304347826087</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L392" t="n">
         <v>394.5</v>
@@ -20605,7 +20623,7 @@
         <v>421</v>
       </c>
       <c r="K393" t="n">
-        <v>44</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L393" t="n">
         <v>394.9</v>
@@ -20656,7 +20674,7 @@
         <v>421</v>
       </c>
       <c r="K394" t="n">
-        <v>44</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L394" t="n">
         <v>395.3</v>
@@ -20707,7 +20725,7 @@
         <v>421</v>
       </c>
       <c r="K395" t="n">
-        <v>50</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L395" t="n">
         <v>395.7</v>
@@ -20758,7 +20776,7 @@
         <v>421</v>
       </c>
       <c r="K396" t="n">
-        <v>45.45454545454545</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L396" t="n">
         <v>395.9</v>
@@ -20809,7 +20827,7 @@
         <v>422</v>
       </c>
       <c r="K397" t="n">
-        <v>47.82608695652174</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L397" t="n">
         <v>396.2</v>
@@ -20860,7 +20878,7 @@
         <v>423</v>
       </c>
       <c r="K398" t="n">
-        <v>56.52173913043478</v>
+        <v>75</v>
       </c>
       <c r="L398" t="n">
         <v>396.4</v>
@@ -20911,7 +20929,7 @@
         <v>424</v>
       </c>
       <c r="K399" t="n">
-        <v>47.82608695652174</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L399" t="n">
         <v>396.9</v>
@@ -20962,7 +20980,7 @@
         <v>426</v>
       </c>
       <c r="K400" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L400" t="n">
         <v>397</v>
@@ -21013,7 +21031,7 @@
         <v>427</v>
       </c>
       <c r="K401" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>396.9</v>
@@ -21064,7 +21082,7 @@
         <v>428</v>
       </c>
       <c r="K402" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L402" t="n">
         <v>397</v>
@@ -21115,7 +21133,7 @@
         <v>430</v>
       </c>
       <c r="K403" t="n">
-        <v>4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L403" t="n">
         <v>396.7</v>
@@ -21166,7 +21184,7 @@
         <v>432</v>
       </c>
       <c r="K404" t="n">
-        <v>-4</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L404" t="n">
         <v>396.2</v>
@@ -21217,7 +21235,7 @@
         <v>432</v>
       </c>
       <c r="K405" t="n">
-        <v>-4</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L405" t="n">
         <v>395.7</v>
@@ -21268,7 +21286,7 @@
         <v>433</v>
       </c>
       <c r="K406" t="n">
-        <v>-8.333333333333332</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L406" t="n">
         <v>395.3</v>
@@ -21319,7 +21337,7 @@
         <v>435</v>
       </c>
       <c r="K407" t="n">
-        <v>-15.38461538461539</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L407" t="n">
         <v>394.6</v>
@@ -21370,7 +21388,7 @@
         <v>435</v>
       </c>
       <c r="K408" t="n">
-        <v>-25</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L408" t="n">
         <v>393.8</v>
@@ -21421,7 +21439,7 @@
         <v>437</v>
       </c>
       <c r="K409" t="n">
-        <v>-18.18181818181818</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L409" t="n">
         <v>392.9</v>
@@ -21472,7 +21490,7 @@
         <v>438</v>
       </c>
       <c r="K410" t="n">
-        <v>-23.80952380952381</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L410" t="n">
         <v>392.3</v>
@@ -21523,7 +21541,7 @@
         <v>440</v>
       </c>
       <c r="K411" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L411" t="n">
         <v>392</v>
@@ -21574,7 +21592,7 @@
         <v>440</v>
       </c>
       <c r="K412" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L412" t="n">
         <v>391.6</v>
@@ -21625,7 +21643,7 @@
         <v>441</v>
       </c>
       <c r="K413" t="n">
-        <v>-30</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L413" t="n">
         <v>391.3</v>
@@ -21676,7 +21694,7 @@
         <v>442</v>
       </c>
       <c r="K414" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L414" t="n">
         <v>391.1</v>
@@ -21778,7 +21796,7 @@
         <v>443</v>
       </c>
       <c r="K416" t="n">
-        <v>-36.36363636363637</v>
+        <v>-25</v>
       </c>
       <c r="L416" t="n">
         <v>390.5</v>
@@ -21829,7 +21847,7 @@
         <v>447</v>
       </c>
       <c r="K417" t="n">
-        <v>-20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L417" t="n">
         <v>390.7</v>
@@ -21880,7 +21898,7 @@
         <v>449</v>
       </c>
       <c r="K418" t="n">
-        <v>-15.38461538461539</v>
+        <v>50</v>
       </c>
       <c r="L418" t="n">
         <v>391.1</v>
@@ -21931,7 +21949,7 @@
         <v>451</v>
       </c>
       <c r="K419" t="n">
-        <v>-3.703703703703703</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L419" t="n">
         <v>391.9</v>
@@ -21982,7 +22000,7 @@
         <v>452</v>
       </c>
       <c r="K420" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L420" t="n">
         <v>392.7</v>
@@ -22033,7 +22051,7 @@
         <v>452</v>
       </c>
       <c r="K421" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="L421" t="n">
         <v>393.3</v>
@@ -22084,7 +22102,7 @@
         <v>454</v>
       </c>
       <c r="K422" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L422" t="n">
         <v>393.7</v>
@@ -22135,7 +22153,7 @@
         <v>455</v>
       </c>
       <c r="K423" t="n">
-        <v>4</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L423" t="n">
         <v>394.1</v>
@@ -22186,7 +22204,7 @@
         <v>455</v>
       </c>
       <c r="K424" t="n">
-        <v>13.04347826086956</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L424" t="n">
         <v>394.6</v>
@@ -22237,7 +22255,7 @@
         <v>456</v>
       </c>
       <c r="K425" t="n">
-        <v>16.66666666666666</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L425" t="n">
         <v>395.2</v>
@@ -22288,7 +22306,7 @@
         <v>456</v>
       </c>
       <c r="K426" t="n">
-        <v>13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L426" t="n">
         <v>395.9</v>
@@ -22339,7 +22357,7 @@
         <v>457</v>
       </c>
       <c r="K427" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>396.1</v>
@@ -22390,7 +22408,7 @@
         <v>461</v>
       </c>
       <c r="K428" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L428" t="n">
         <v>395.7</v>
@@ -22441,7 +22459,7 @@
         <v>463</v>
       </c>
       <c r="K429" t="n">
-        <v>15.38461538461539</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L429" t="n">
         <v>395.3</v>
@@ -22492,7 +22510,7 @@
         <v>463</v>
       </c>
       <c r="K430" t="n">
-        <v>12</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L430" t="n">
         <v>394.8</v>
@@ -22543,7 +22561,7 @@
         <v>464</v>
       </c>
       <c r="K431" t="n">
-        <v>8.333333333333332</v>
+        <v>-20</v>
       </c>
       <c r="L431" t="n">
         <v>394.4</v>
@@ -22594,7 +22612,7 @@
         <v>464</v>
       </c>
       <c r="K432" t="n">
-        <v>8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L432" t="n">
         <v>394.2</v>
@@ -22645,7 +22663,7 @@
         <v>466</v>
       </c>
       <c r="K433" t="n">
-        <v>4</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L433" t="n">
         <v>393.9</v>
@@ -22696,7 +22714,7 @@
         <v>467</v>
       </c>
       <c r="K434" t="n">
-        <v>12</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L434" t="n">
         <v>393.7</v>
@@ -22747,7 +22765,7 @@
         <v>468</v>
       </c>
       <c r="K435" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>393.3</v>
@@ -22798,7 +22816,7 @@
         <v>468</v>
       </c>
       <c r="K436" t="n">
-        <v>12</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L436" t="n">
         <v>392.9</v>
@@ -22849,7 +22867,7 @@
         <v>471</v>
       </c>
       <c r="K437" t="n">
-        <v>8.333333333333332</v>
+        <v>40</v>
       </c>
       <c r="L437" t="n">
         <v>392.9</v>
@@ -22900,7 +22918,7 @@
         <v>472</v>
       </c>
       <c r="K438" t="n">
-        <v>4.347826086956522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L438" t="n">
         <v>393.4</v>
@@ -22951,7 +22969,7 @@
         <v>474</v>
       </c>
       <c r="K439" t="n">
-        <v>4.347826086956522</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L439" t="n">
         <v>393.9</v>
@@ -23002,7 +23020,7 @@
         <v>476</v>
       </c>
       <c r="K440" t="n">
-        <v>-8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L440" t="n">
         <v>394.2</v>
@@ -23053,7 +23071,7 @@
         <v>476</v>
       </c>
       <c r="K441" t="n">
-        <v>-8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L441" t="n">
         <v>394.4</v>
@@ -23104,7 +23122,7 @@
         <v>477</v>
       </c>
       <c r="K442" t="n">
-        <v>4.347826086956522</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L442" t="n">
         <v>394.7</v>
@@ -23155,7 +23173,7 @@
         <v>479</v>
       </c>
       <c r="K443" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L443" t="n">
         <v>395.4</v>
@@ -23206,7 +23224,7 @@
         <v>479</v>
       </c>
       <c r="K444" t="n">
-        <v>16.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L444" t="n">
         <v>396</v>
@@ -23257,7 +23275,7 @@
         <v>479</v>
       </c>
       <c r="K445" t="n">
-        <v>13.04347826086956</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L445" t="n">
         <v>396.7</v>
@@ -23308,7 +23326,7 @@
         <v>479</v>
       </c>
       <c r="K446" t="n">
-        <v>13.04347826086956</v>
+        <v>50</v>
       </c>
       <c r="L446" t="n">
         <v>397.4</v>
@@ -23359,7 +23377,7 @@
         <v>479</v>
       </c>
       <c r="K447" t="n">
-        <v>18.18181818181818</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L447" t="n">
         <v>397.8</v>
@@ -23410,7 +23428,7 @@
         <v>479</v>
       </c>
       <c r="K448" t="n">
-        <v>44.44444444444444</v>
+        <v>20</v>
       </c>
       <c r="L448" t="n">
         <v>398.1</v>
@@ -23461,7 +23479,7 @@
         <v>480</v>
       </c>
       <c r="K449" t="n">
-        <v>29.41176470588236</v>
+        <v>50</v>
       </c>
       <c r="L449" t="n">
         <v>398.1</v>
@@ -23512,7 +23530,7 @@
         <v>481</v>
       </c>
       <c r="K450" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L450" t="n">
         <v>398.4</v>
@@ -23563,7 +23581,7 @@
         <v>482</v>
       </c>
       <c r="K451" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L451" t="n">
         <v>398.6</v>
@@ -23614,7 +23632,7 @@
         <v>483</v>
       </c>
       <c r="K452" t="n">
-        <v>15.78947368421053</v>
+        <v>-50</v>
       </c>
       <c r="L452" t="n">
         <v>398.6</v>
@@ -23665,7 +23683,7 @@
         <v>484</v>
       </c>
       <c r="K453" t="n">
-        <v>33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L453" t="n">
         <v>398.5</v>
@@ -23716,7 +23734,7 @@
         <v>485</v>
       </c>
       <c r="K454" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>398.5</v>
@@ -23767,7 +23785,7 @@
         <v>485</v>
       </c>
       <c r="K455" t="n">
-        <v>41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>398.5</v>
@@ -23818,7 +23836,7 @@
         <v>486</v>
       </c>
       <c r="K456" t="n">
-        <v>44.44444444444444</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L456" t="n">
         <v>398.6</v>
@@ -23869,7 +23887,7 @@
         <v>486</v>
       </c>
       <c r="K457" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L457" t="n">
         <v>398.7</v>
@@ -23920,7 +23938,7 @@
         <v>486</v>
       </c>
       <c r="K458" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L458" t="n">
         <v>398.8</v>
@@ -23971,7 +23989,7 @@
         <v>487</v>
       </c>
       <c r="K459" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L459" t="n">
         <v>399.1</v>
@@ -24022,7 +24040,7 @@
         <v>489</v>
       </c>
       <c r="K460" t="n">
-        <v>53.84615384615385</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L460" t="n">
         <v>399.5</v>
@@ -24073,7 +24091,7 @@
         <v>489</v>
       </c>
       <c r="K461" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L461" t="n">
         <v>400</v>
@@ -24124,7 +24142,7 @@
         <v>491</v>
       </c>
       <c r="K462" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L462" t="n">
         <v>400.8</v>
@@ -24175,7 +24193,7 @@
         <v>492</v>
       </c>
       <c r="K463" t="n">
-        <v>38.46153846153847</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L463" t="n">
         <v>401.4</v>
@@ -24226,7 +24244,7 @@
         <v>492</v>
       </c>
       <c r="K464" t="n">
-        <v>38.46153846153847</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L464" t="n">
         <v>401.9</v>
@@ -24277,7 +24295,7 @@
         <v>493</v>
       </c>
       <c r="K465" t="n">
-        <v>42.85714285714285</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L465" t="n">
         <v>402.5</v>
@@ -24328,7 +24346,7 @@
         <v>494</v>
       </c>
       <c r="K466" t="n">
-        <v>46.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="L466" t="n">
         <v>403.1</v>
@@ -24379,7 +24397,7 @@
         <v>496</v>
       </c>
       <c r="K467" t="n">
-        <v>52.94117647058824</v>
+        <v>80</v>
       </c>
       <c r="L467" t="n">
         <v>403.9</v>
@@ -24430,7 +24448,7 @@
         <v>501</v>
       </c>
       <c r="K468" t="n">
-        <v>18.18181818181818</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L468" t="n">
         <v>404.2</v>
@@ -24481,7 +24499,7 @@
         <v>504</v>
       </c>
       <c r="K469" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L469" t="n">
         <v>404.7</v>
@@ -24532,7 +24550,7 @@
         <v>504</v>
       </c>
       <c r="K470" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L470" t="n">
         <v>405</v>
@@ -24583,7 +24601,7 @@
         <v>510</v>
       </c>
       <c r="K471" t="n">
-        <v>7.142857142857142</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L471" t="n">
         <v>404.7</v>
@@ -24634,7 +24652,7 @@
         <v>510</v>
       </c>
       <c r="K472" t="n">
-        <v>11.11111111111111</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L472" t="n">
         <v>404.2</v>
@@ -24685,7 +24703,7 @@
         <v>510</v>
       </c>
       <c r="K473" t="n">
-        <v>7.692307692307693</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L473" t="n">
         <v>403.8</v>
@@ -24736,7 +24754,7 @@
         <v>510</v>
       </c>
       <c r="K474" t="n">
-        <v>4</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L474" t="n">
         <v>403.4</v>
@@ -24787,7 +24805,7 @@
         <v>511</v>
       </c>
       <c r="K475" t="n">
-        <v>7.692307692307693</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L475" t="n">
         <v>403</v>
@@ -24838,7 +24856,7 @@
         <v>512</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L476" t="n">
         <v>402.4</v>
@@ -24889,7 +24907,7 @@
         <v>513</v>
       </c>
       <c r="K477" t="n">
-        <v>-3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L477" t="n">
         <v>401.5</v>
@@ -24940,7 +24958,7 @@
         <v>513</v>
       </c>
       <c r="K478" t="n">
-        <v>-3.703703703703703</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L478" t="n">
         <v>401.1</v>
@@ -24991,7 +25009,7 @@
         <v>513</v>
       </c>
       <c r="K479" t="n">
-        <v>-7.692307692307693</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L479" t="n">
         <v>400.4</v>
@@ -25042,7 +25060,7 @@
         <v>514</v>
       </c>
       <c r="K480" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L480" t="n">
         <v>399.6</v>
@@ -25093,7 +25111,7 @@
         <v>515</v>
       </c>
       <c r="K481" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L481" t="n">
         <v>399.3</v>
@@ -25144,7 +25162,7 @@
         <v>516</v>
       </c>
       <c r="K482" t="n">
-        <v>-36</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L482" t="n">
         <v>398.9</v>
@@ -25195,7 +25213,7 @@
         <v>518</v>
       </c>
       <c r="K483" t="n">
-        <v>-38.46153846153847</v>
+        <v>-75</v>
       </c>
       <c r="L483" t="n">
         <v>398.3</v>

--- a/BackTest/2019-10-20 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-20 BackTest ZRX.xlsx
@@ -3111,102 +3111,96 @@
         <v>374.8833333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>365</v>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="C79" t="n">
+        <v>365</v>
+      </c>
+      <c r="D79" t="n">
+        <v>365</v>
+      </c>
+      <c r="E79" t="n">
+        <v>365</v>
+      </c>
+      <c r="F79" t="n">
+        <v>259.202</v>
+      </c>
+      <c r="G79" t="n">
+        <v>374.6833333333333</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>365</v>
+      </c>
+      <c r="K79" t="n">
+        <v>365</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>363</v>
+      </c>
+      <c r="C80" t="n">
+        <v>362</v>
+      </c>
+      <c r="D80" t="n">
+        <v>363</v>
+      </c>
+      <c r="E80" t="n">
+        <v>362</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6556.612</v>
+      </c>
+      <c r="G80" t="n">
+        <v>374.4333333333333</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>365</v>
+      </c>
+      <c r="K80" t="n">
+        <v>365</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>365</v>
-      </c>
-      <c r="C79" t="n">
-        <v>365</v>
-      </c>
-      <c r="D79" t="n">
-        <v>365</v>
-      </c>
-      <c r="E79" t="n">
-        <v>365</v>
-      </c>
-      <c r="F79" t="n">
-        <v>259.202</v>
-      </c>
-      <c r="G79" t="n">
-        <v>374.6833333333333</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>365</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>363</v>
-      </c>
-      <c r="C80" t="n">
-        <v>362</v>
-      </c>
-      <c r="D80" t="n">
-        <v>363</v>
-      </c>
-      <c r="E80" t="n">
-        <v>362</v>
-      </c>
-      <c r="F80" t="n">
-        <v>6556.612</v>
-      </c>
-      <c r="G80" t="n">
-        <v>374.4333333333333</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>363</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3240,9 +3234,11 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>364</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+        <v>362</v>
+      </c>
+      <c r="K81" t="n">
+        <v>365</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3281,9 +3277,11 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
+        <v>364</v>
+      </c>
+      <c r="K82" t="n">
         <v>365</v>
       </c>
-      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3322,9 +3320,11 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>363</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>365</v>
+      </c>
+      <c r="K83" t="n">
+        <v>365</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3363,9 +3363,11 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
+        <v>363</v>
+      </c>
+      <c r="K84" t="n">
         <v>365</v>
       </c>
-      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,7 +3408,9 @@
       <c r="J85" t="n">
         <v>365</v>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>365</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3439,15 +3443,15 @@
         <v>373.1333333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>364</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>365</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,15 +3484,15 @@
         <v>372.9</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
         <v>365</v>
       </c>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3521,15 +3525,15 @@
         <v>372.6666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
         <v>365</v>
       </c>
-      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3562,15 +3566,15 @@
         <v>372.5166666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>370</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>365</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3603,15 +3607,15 @@
         <v>372.4333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>374</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>365</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3644,15 +3648,15 @@
         <v>372.3833333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>374</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>365</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3685,15 +3689,15 @@
         <v>372.3333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>373</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>365</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3726,15 +3730,15 @@
         <v>372.3166666666667</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>375</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>365</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,7 +3777,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>365</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,7 +3818,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>365</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,7 +3859,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>365</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,7 +3900,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>365</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,7 +3941,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>365</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,7 +3982,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>365</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,7 +4023,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>365</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,7 +4064,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>365</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,7 +4105,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>365</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,7 +4146,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>365</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4163,7 +4187,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>365</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,7 +4228,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>365</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,7 +4269,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>365</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,7 +4310,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>365</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,7 +4351,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>365</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,7 +4392,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>365</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,7 +4433,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>365</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,7 +4474,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>365</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,7 +4515,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>365</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,7 +4556,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>365</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,7 +4597,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>365</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,7 +4638,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>365</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4631,7 +4679,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>365</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,7 +4720,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>365</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,7 +4761,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>365</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,7 +4802,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>365</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4787,7 +4843,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>365</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4826,7 +4884,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>365</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4865,7 +4925,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>365</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,7 +4966,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>365</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4943,7 +5007,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>365</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,7 +5048,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>365</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5021,7 +5089,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>365</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,7 +5130,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>365</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5099,7 +5171,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>365</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,7 +5212,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>365</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5177,7 +5253,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>365</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5213,1030 +5291,1208 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>365</v>
+      </c>
       <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>381</v>
+      </c>
+      <c r="C132" t="n">
+        <v>381</v>
+      </c>
+      <c r="D132" t="n">
+        <v>381</v>
+      </c>
+      <c r="E132" t="n">
+        <v>381</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1994.3542</v>
+      </c>
+      <c r="G132" t="n">
+        <v>374.8</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>365</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>379</v>
+      </c>
+      <c r="C133" t="n">
+        <v>378</v>
+      </c>
+      <c r="D133" t="n">
+        <v>379</v>
+      </c>
+      <c r="E133" t="n">
+        <v>378</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4144.4514</v>
+      </c>
+      <c r="G133" t="n">
+        <v>374.9833333333333</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>365</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>378</v>
+      </c>
+      <c r="C134" t="n">
+        <v>379</v>
+      </c>
+      <c r="D134" t="n">
+        <v>379</v>
+      </c>
+      <c r="E134" t="n">
+        <v>378</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2203.8166</v>
+      </c>
+      <c r="G134" t="n">
+        <v>375.1833333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>365</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>377</v>
+      </c>
+      <c r="C135" t="n">
+        <v>380</v>
+      </c>
+      <c r="D135" t="n">
+        <v>380</v>
+      </c>
+      <c r="E135" t="n">
+        <v>377</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1309.5572</v>
+      </c>
+      <c r="G135" t="n">
+        <v>375.3833333333333</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>365</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>380</v>
+      </c>
+      <c r="C136" t="n">
+        <v>381</v>
+      </c>
+      <c r="D136" t="n">
+        <v>381</v>
+      </c>
+      <c r="E136" t="n">
+        <v>380</v>
+      </c>
+      <c r="F136" t="n">
+        <v>368.9419</v>
+      </c>
+      <c r="G136" t="n">
+        <v>375.6166666666667</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>365</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>381</v>
+      </c>
+      <c r="C137" t="n">
+        <v>381</v>
+      </c>
+      <c r="D137" t="n">
+        <v>381</v>
+      </c>
+      <c r="E137" t="n">
+        <v>381</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1928.0478</v>
+      </c>
+      <c r="G137" t="n">
+        <v>375.8666666666667</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>365</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>381</v>
+      </c>
+      <c r="C138" t="n">
+        <v>381</v>
+      </c>
+      <c r="D138" t="n">
+        <v>381</v>
+      </c>
+      <c r="E138" t="n">
+        <v>381</v>
+      </c>
+      <c r="F138" t="n">
+        <v>156.0653</v>
+      </c>
+      <c r="G138" t="n">
+        <v>376.1333333333333</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>365</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>382</v>
+      </c>
+      <c r="C139" t="n">
+        <v>382</v>
+      </c>
+      <c r="D139" t="n">
+        <v>382</v>
+      </c>
+      <c r="E139" t="n">
+        <v>382</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1153.8461</v>
+      </c>
+      <c r="G139" t="n">
+        <v>376.4166666666667</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>365</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>384</v>
+      </c>
+      <c r="C140" t="n">
+        <v>382</v>
+      </c>
+      <c r="D140" t="n">
+        <v>384</v>
+      </c>
+      <c r="E140" t="n">
+        <v>382</v>
+      </c>
+      <c r="F140" t="n">
+        <v>177.8677321148825</v>
+      </c>
+      <c r="G140" t="n">
+        <v>376.75</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>365</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>383</v>
+      </c>
+      <c r="C141" t="n">
+        <v>383</v>
+      </c>
+      <c r="D141" t="n">
+        <v>383</v>
+      </c>
+      <c r="E141" t="n">
+        <v>383</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6036.517867885117</v>
+      </c>
+      <c r="G141" t="n">
+        <v>377.0666666666667</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>365</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>382</v>
+      </c>
+      <c r="C142" t="n">
+        <v>383</v>
+      </c>
+      <c r="D142" t="n">
+        <v>383</v>
+      </c>
+      <c r="E142" t="n">
+        <v>382</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1278.316</v>
+      </c>
+      <c r="G142" t="n">
+        <v>377.3666666666667</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>365</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>383</v>
+      </c>
+      <c r="C143" t="n">
+        <v>383</v>
+      </c>
+      <c r="D143" t="n">
+        <v>383</v>
+      </c>
+      <c r="E143" t="n">
+        <v>382</v>
+      </c>
+      <c r="F143" t="n">
+        <v>645.3284</v>
+      </c>
+      <c r="G143" t="n">
+        <v>377.7</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>365</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>383</v>
+      </c>
+      <c r="C144" t="n">
+        <v>383</v>
+      </c>
+      <c r="D144" t="n">
+        <v>383</v>
+      </c>
+      <c r="E144" t="n">
+        <v>383</v>
+      </c>
+      <c r="F144" t="n">
+        <v>18.4338</v>
+      </c>
+      <c r="G144" t="n">
+        <v>378</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>365</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>382</v>
+      </c>
+      <c r="C145" t="n">
+        <v>381</v>
+      </c>
+      <c r="D145" t="n">
+        <v>382</v>
+      </c>
+      <c r="E145" t="n">
+        <v>381</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1821.7246</v>
+      </c>
+      <c r="G145" t="n">
+        <v>378.2666666666667</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>365</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>383</v>
+      </c>
+      <c r="C146" t="n">
+        <v>383</v>
+      </c>
+      <c r="D146" t="n">
+        <v>383</v>
+      </c>
+      <c r="E146" t="n">
+        <v>383</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16.8551</v>
+      </c>
+      <c r="G146" t="n">
+        <v>378.5666666666667</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>365</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>383</v>
+      </c>
+      <c r="C147" t="n">
+        <v>383</v>
+      </c>
+      <c r="D147" t="n">
+        <v>383</v>
+      </c>
+      <c r="E147" t="n">
+        <v>383</v>
+      </c>
+      <c r="F147" t="n">
+        <v>105.3648</v>
+      </c>
+      <c r="G147" t="n">
+        <v>378.8666666666667</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>365</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>384</v>
+      </c>
+      <c r="C148" t="n">
+        <v>383</v>
+      </c>
+      <c r="D148" t="n">
+        <v>384</v>
+      </c>
+      <c r="E148" t="n">
+        <v>383</v>
+      </c>
+      <c r="F148" t="n">
+        <v>188.9504</v>
+      </c>
+      <c r="G148" t="n">
+        <v>379.1666666666667</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>365</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>384</v>
+      </c>
+      <c r="C149" t="n">
+        <v>384</v>
+      </c>
+      <c r="D149" t="n">
+        <v>384</v>
+      </c>
+      <c r="E149" t="n">
+        <v>384</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2343.75</v>
+      </c>
+      <c r="G149" t="n">
+        <v>379.4</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>365</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>384</v>
+      </c>
+      <c r="C150" t="n">
+        <v>384</v>
+      </c>
+      <c r="D150" t="n">
+        <v>384</v>
+      </c>
+      <c r="E150" t="n">
+        <v>384</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2427.2162</v>
+      </c>
+      <c r="G150" t="n">
+        <v>379.5666666666667</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>365</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>384</v>
+      </c>
+      <c r="C151" t="n">
+        <v>383</v>
+      </c>
+      <c r="D151" t="n">
+        <v>384</v>
+      </c>
+      <c r="E151" t="n">
+        <v>383</v>
+      </c>
+      <c r="F151" t="n">
+        <v>246.3496</v>
+      </c>
+      <c r="G151" t="n">
+        <v>379.7333333333333</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>365</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>384</v>
+      </c>
+      <c r="C152" t="n">
+        <v>384</v>
+      </c>
+      <c r="D152" t="n">
+        <v>384</v>
+      </c>
+      <c r="E152" t="n">
+        <v>384</v>
+      </c>
+      <c r="F152" t="n">
+        <v>85.0166</v>
+      </c>
+      <c r="G152" t="n">
+        <v>379.8666666666667</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>365</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>384</v>
+      </c>
+      <c r="C153" t="n">
+        <v>384</v>
+      </c>
+      <c r="D153" t="n">
+        <v>384</v>
+      </c>
+      <c r="E153" t="n">
+        <v>384</v>
+      </c>
+      <c r="F153" t="n">
+        <v>29.2421</v>
+      </c>
+      <c r="G153" t="n">
+        <v>380</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>365</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>384</v>
+      </c>
+      <c r="C154" t="n">
+        <v>384</v>
+      </c>
+      <c r="D154" t="n">
+        <v>384</v>
+      </c>
+      <c r="E154" t="n">
+        <v>384</v>
+      </c>
+      <c r="F154" t="n">
+        <v>7.8125</v>
+      </c>
+      <c r="G154" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>365</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>382</v>
+      </c>
+      <c r="C155" t="n">
+        <v>382</v>
+      </c>
+      <c r="D155" t="n">
+        <v>382</v>
+      </c>
+      <c r="E155" t="n">
+        <v>382</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6</v>
+      </c>
+      <c r="G155" t="n">
+        <v>380.1666666666667</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>365</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>382</v>
+      </c>
+      <c r="C156" t="n">
+        <v>382</v>
+      </c>
+      <c r="D156" t="n">
+        <v>382</v>
+      </c>
+      <c r="E156" t="n">
+        <v>382</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3260.6357</v>
+      </c>
+      <c r="G156" t="n">
+        <v>380.2166666666666</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>365</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>384</v>
+      </c>
+      <c r="C157" t="n">
+        <v>384</v>
+      </c>
+      <c r="D157" t="n">
+        <v>384</v>
+      </c>
+      <c r="E157" t="n">
+        <v>384</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3</v>
+      </c>
+      <c r="G157" t="n">
+        <v>380.3</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>365</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>384</v>
+      </c>
+      <c r="C158" t="n">
+        <v>382</v>
+      </c>
+      <c r="D158" t="n">
+        <v>386</v>
+      </c>
+      <c r="E158" t="n">
+        <v>382</v>
+      </c>
+      <c r="F158" t="n">
+        <v>42928.2953</v>
+      </c>
+      <c r="G158" t="n">
+        <v>380.3166666666667</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>365</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>386</v>
+      </c>
+      <c r="C159" t="n">
+        <v>386</v>
+      </c>
+      <c r="D159" t="n">
+        <v>386</v>
+      </c>
+      <c r="E159" t="n">
+        <v>386</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4</v>
+      </c>
+      <c r="G159" t="n">
+        <v>380.4833333333333</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>365</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>386</v>
+      </c>
+      <c r="C160" t="n">
+        <v>386</v>
+      </c>
+      <c r="D160" t="n">
+        <v>386</v>
+      </c>
+      <c r="E160" t="n">
+        <v>386</v>
+      </c>
+      <c r="F160" t="n">
+        <v>577.3756</v>
+      </c>
+      <c r="G160" t="n">
+        <v>380.6833333333333</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>365</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>381</v>
-      </c>
-      <c r="C132" t="n">
-        <v>381</v>
-      </c>
-      <c r="D132" t="n">
-        <v>381</v>
-      </c>
-      <c r="E132" t="n">
-        <v>381</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1994.3542</v>
-      </c>
-      <c r="G132" t="n">
-        <v>374.8</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>379</v>
-      </c>
-      <c r="C133" t="n">
-        <v>378</v>
-      </c>
-      <c r="D133" t="n">
-        <v>379</v>
-      </c>
-      <c r="E133" t="n">
-        <v>378</v>
-      </c>
-      <c r="F133" t="n">
-        <v>4144.4514</v>
-      </c>
-      <c r="G133" t="n">
-        <v>374.9833333333333</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>378</v>
-      </c>
-      <c r="C134" t="n">
-        <v>379</v>
-      </c>
-      <c r="D134" t="n">
-        <v>379</v>
-      </c>
-      <c r="E134" t="n">
-        <v>378</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2203.8166</v>
-      </c>
-      <c r="G134" t="n">
-        <v>375.1833333333333</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>377</v>
-      </c>
-      <c r="C135" t="n">
-        <v>380</v>
-      </c>
-      <c r="D135" t="n">
-        <v>380</v>
-      </c>
-      <c r="E135" t="n">
-        <v>377</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1309.5572</v>
-      </c>
-      <c r="G135" t="n">
-        <v>375.3833333333333</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>380</v>
-      </c>
-      <c r="C136" t="n">
-        <v>381</v>
-      </c>
-      <c r="D136" t="n">
-        <v>381</v>
-      </c>
-      <c r="E136" t="n">
-        <v>380</v>
-      </c>
-      <c r="F136" t="n">
-        <v>368.9419</v>
-      </c>
-      <c r="G136" t="n">
-        <v>375.6166666666667</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>381</v>
-      </c>
-      <c r="C137" t="n">
-        <v>381</v>
-      </c>
-      <c r="D137" t="n">
-        <v>381</v>
-      </c>
-      <c r="E137" t="n">
-        <v>381</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1928.0478</v>
-      </c>
-      <c r="G137" t="n">
-        <v>375.8666666666667</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>381</v>
-      </c>
-      <c r="C138" t="n">
-        <v>381</v>
-      </c>
-      <c r="D138" t="n">
-        <v>381</v>
-      </c>
-      <c r="E138" t="n">
-        <v>381</v>
-      </c>
-      <c r="F138" t="n">
-        <v>156.0653</v>
-      </c>
-      <c r="G138" t="n">
-        <v>376.1333333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>382</v>
-      </c>
-      <c r="C139" t="n">
-        <v>382</v>
-      </c>
-      <c r="D139" t="n">
-        <v>382</v>
-      </c>
-      <c r="E139" t="n">
-        <v>382</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1153.8461</v>
-      </c>
-      <c r="G139" t="n">
-        <v>376.4166666666667</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>384</v>
-      </c>
-      <c r="C140" t="n">
-        <v>382</v>
-      </c>
-      <c r="D140" t="n">
-        <v>384</v>
-      </c>
-      <c r="E140" t="n">
-        <v>382</v>
-      </c>
-      <c r="F140" t="n">
-        <v>177.8677321148825</v>
-      </c>
-      <c r="G140" t="n">
-        <v>376.75</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>383</v>
-      </c>
-      <c r="C141" t="n">
-        <v>383</v>
-      </c>
-      <c r="D141" t="n">
-        <v>383</v>
-      </c>
-      <c r="E141" t="n">
-        <v>383</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6036.517867885117</v>
-      </c>
-      <c r="G141" t="n">
-        <v>377.0666666666667</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>382</v>
-      </c>
-      <c r="C142" t="n">
-        <v>383</v>
-      </c>
-      <c r="D142" t="n">
-        <v>383</v>
-      </c>
-      <c r="E142" t="n">
-        <v>382</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1278.316</v>
-      </c>
-      <c r="G142" t="n">
-        <v>377.3666666666667</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>383</v>
-      </c>
-      <c r="C143" t="n">
-        <v>383</v>
-      </c>
-      <c r="D143" t="n">
-        <v>383</v>
-      </c>
-      <c r="E143" t="n">
-        <v>382</v>
-      </c>
-      <c r="F143" t="n">
-        <v>645.3284</v>
-      </c>
-      <c r="G143" t="n">
-        <v>377.7</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>383</v>
-      </c>
-      <c r="C144" t="n">
-        <v>383</v>
-      </c>
-      <c r="D144" t="n">
-        <v>383</v>
-      </c>
-      <c r="E144" t="n">
-        <v>383</v>
-      </c>
-      <c r="F144" t="n">
-        <v>18.4338</v>
-      </c>
-      <c r="G144" t="n">
-        <v>378</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>382</v>
-      </c>
-      <c r="C145" t="n">
-        <v>381</v>
-      </c>
-      <c r="D145" t="n">
-        <v>382</v>
-      </c>
-      <c r="E145" t="n">
-        <v>381</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1821.7246</v>
-      </c>
-      <c r="G145" t="n">
-        <v>378.2666666666667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>383</v>
-      </c>
-      <c r="C146" t="n">
-        <v>383</v>
-      </c>
-      <c r="D146" t="n">
-        <v>383</v>
-      </c>
-      <c r="E146" t="n">
-        <v>383</v>
-      </c>
-      <c r="F146" t="n">
-        <v>16.8551</v>
-      </c>
-      <c r="G146" t="n">
-        <v>378.5666666666667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>383</v>
-      </c>
-      <c r="C147" t="n">
-        <v>383</v>
-      </c>
-      <c r="D147" t="n">
-        <v>383</v>
-      </c>
-      <c r="E147" t="n">
-        <v>383</v>
-      </c>
-      <c r="F147" t="n">
-        <v>105.3648</v>
-      </c>
-      <c r="G147" t="n">
-        <v>378.8666666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>384</v>
-      </c>
-      <c r="C148" t="n">
-        <v>383</v>
-      </c>
-      <c r="D148" t="n">
-        <v>384</v>
-      </c>
-      <c r="E148" t="n">
-        <v>383</v>
-      </c>
-      <c r="F148" t="n">
-        <v>188.9504</v>
-      </c>
-      <c r="G148" t="n">
-        <v>379.1666666666667</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>384</v>
-      </c>
-      <c r="C149" t="n">
-        <v>384</v>
-      </c>
-      <c r="D149" t="n">
-        <v>384</v>
-      </c>
-      <c r="E149" t="n">
-        <v>384</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2343.75</v>
-      </c>
-      <c r="G149" t="n">
-        <v>379.4</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>384</v>
-      </c>
-      <c r="C150" t="n">
-        <v>384</v>
-      </c>
-      <c r="D150" t="n">
-        <v>384</v>
-      </c>
-      <c r="E150" t="n">
-        <v>384</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2427.2162</v>
-      </c>
-      <c r="G150" t="n">
-        <v>379.5666666666667</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>384</v>
-      </c>
-      <c r="C151" t="n">
-        <v>383</v>
-      </c>
-      <c r="D151" t="n">
-        <v>384</v>
-      </c>
-      <c r="E151" t="n">
-        <v>383</v>
-      </c>
-      <c r="F151" t="n">
-        <v>246.3496</v>
-      </c>
-      <c r="G151" t="n">
-        <v>379.7333333333333</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>384</v>
-      </c>
-      <c r="C152" t="n">
-        <v>384</v>
-      </c>
-      <c r="D152" t="n">
-        <v>384</v>
-      </c>
-      <c r="E152" t="n">
-        <v>384</v>
-      </c>
-      <c r="F152" t="n">
-        <v>85.0166</v>
-      </c>
-      <c r="G152" t="n">
-        <v>379.8666666666667</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>384</v>
-      </c>
-      <c r="C153" t="n">
-        <v>384</v>
-      </c>
-      <c r="D153" t="n">
-        <v>384</v>
-      </c>
-      <c r="E153" t="n">
-        <v>384</v>
-      </c>
-      <c r="F153" t="n">
-        <v>29.2421</v>
-      </c>
-      <c r="G153" t="n">
-        <v>380</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>384</v>
-      </c>
-      <c r="C154" t="n">
-        <v>384</v>
-      </c>
-      <c r="D154" t="n">
-        <v>384</v>
-      </c>
-      <c r="E154" t="n">
-        <v>384</v>
-      </c>
-      <c r="F154" t="n">
-        <v>7.8125</v>
-      </c>
-      <c r="G154" t="n">
-        <v>380.1</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>382</v>
-      </c>
-      <c r="C155" t="n">
-        <v>382</v>
-      </c>
-      <c r="D155" t="n">
-        <v>382</v>
-      </c>
-      <c r="E155" t="n">
-        <v>382</v>
-      </c>
-      <c r="F155" t="n">
-        <v>6</v>
-      </c>
-      <c r="G155" t="n">
-        <v>380.1666666666667</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>382</v>
-      </c>
-      <c r="C156" t="n">
-        <v>382</v>
-      </c>
-      <c r="D156" t="n">
-        <v>382</v>
-      </c>
-      <c r="E156" t="n">
-        <v>382</v>
-      </c>
-      <c r="F156" t="n">
-        <v>3260.6357</v>
-      </c>
-      <c r="G156" t="n">
-        <v>380.2166666666666</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>384</v>
-      </c>
-      <c r="C157" t="n">
-        <v>384</v>
-      </c>
-      <c r="D157" t="n">
-        <v>384</v>
-      </c>
-      <c r="E157" t="n">
-        <v>384</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3</v>
-      </c>
-      <c r="G157" t="n">
-        <v>380.3</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>384</v>
-      </c>
-      <c r="C158" t="n">
-        <v>382</v>
-      </c>
-      <c r="D158" t="n">
-        <v>386</v>
-      </c>
-      <c r="E158" t="n">
-        <v>382</v>
-      </c>
-      <c r="F158" t="n">
-        <v>42928.2953</v>
-      </c>
-      <c r="G158" t="n">
-        <v>380.3166666666667</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>386</v>
-      </c>
-      <c r="C159" t="n">
-        <v>386</v>
-      </c>
-      <c r="D159" t="n">
-        <v>386</v>
-      </c>
-      <c r="E159" t="n">
-        <v>386</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4</v>
-      </c>
-      <c r="G159" t="n">
-        <v>380.4833333333333</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>386</v>
-      </c>
-      <c r="C160" t="n">
-        <v>386</v>
-      </c>
-      <c r="D160" t="n">
-        <v>386</v>
-      </c>
-      <c r="E160" t="n">
-        <v>386</v>
-      </c>
-      <c r="F160" t="n">
-        <v>577.3756</v>
-      </c>
-      <c r="G160" t="n">
-        <v>380.6833333333333</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>1</v>
+        <v>1.052534246575343</v>
       </c>
     </row>
     <row r="161">
@@ -6265,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6300,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -14630,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>

--- a/BackTest/2019-10-20 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-20 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-15328.4749</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-15097.6574</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>364</v>
@@ -521,7 +521,7 @@
         <v>-15097.6574</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>369</v>
@@ -562,7 +562,7 @@
         <v>-13638.4452</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>369</v>
@@ -603,7 +603,7 @@
         <v>7373.465600000005</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>370</v>
@@ -640,7 +640,7 @@
         <v>7373.465600000005</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>371</v>
@@ -681,7 +681,7 @@
         <v>7373.465600000005</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>371</v>
@@ -722,7 +722,7 @@
         <v>7373.465600000005</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>371</v>
@@ -759,9 +759,11 @@
         <v>14263.32380000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>371</v>
+      </c>
       <c r="J10" t="n">
         <v>371</v>
       </c>
@@ -798,9 +800,11 @@
         <v>14263.32380000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>372</v>
+      </c>
       <c r="J11" t="n">
         <v>371</v>
       </c>
@@ -837,9 +841,11 @@
         <v>14263.32380000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>372</v>
+      </c>
       <c r="J12" t="n">
         <v>371</v>
       </c>
@@ -876,9 +882,11 @@
         <v>14263.32380000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>372</v>
+      </c>
       <c r="J13" t="n">
         <v>371</v>
       </c>
@@ -915,7 +923,7 @@
         <v>15676.97983582888</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>372</v>
@@ -956,7 +964,7 @@
         <v>-4035.550264171117</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>375</v>
@@ -997,9 +1005,11 @@
         <v>-4035.550264171117</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>374</v>
+      </c>
       <c r="J16" t="n">
         <v>371</v>
       </c>
@@ -1036,9 +1046,11 @@
         <v>-4035.550264171117</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>374</v>
+      </c>
       <c r="J17" t="n">
         <v>371</v>
       </c>
@@ -1075,9 +1087,11 @@
         <v>-2624.191564171118</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>374</v>
+      </c>
       <c r="J18" t="n">
         <v>371</v>
       </c>
@@ -1855,9 +1869,11 @@
         <v>-2676.460718813025</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>374</v>
+      </c>
       <c r="J38" t="n">
         <v>371</v>
       </c>
@@ -1894,9 +1910,11 @@
         <v>-2676.460718813025</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>375</v>
+      </c>
       <c r="J39" t="n">
         <v>371</v>
       </c>
@@ -1933,9 +1951,11 @@
         <v>-2676.460718813025</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>375</v>
+      </c>
       <c r="J40" t="n">
         <v>371</v>
       </c>
@@ -2011,9 +2031,11 @@
         <v>765.4457811869747</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>374</v>
+      </c>
       <c r="J42" t="n">
         <v>371</v>
       </c>
@@ -2050,9 +2072,11 @@
         <v>1047.573881186975</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>376</v>
+      </c>
       <c r="J43" t="n">
         <v>371</v>
       </c>
@@ -2089,9 +2113,11 @@
         <v>1047.573881186975</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>377</v>
+      </c>
       <c r="J44" t="n">
         <v>371</v>
       </c>
@@ -4858,9 +4884,11 @@
         <v>-22616.96218653789</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>371</v>
+      </c>
       <c r="J115" t="n">
         <v>371</v>
       </c>
@@ -4897,9 +4925,11 @@
         <v>-22616.96218653789</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>371</v>
+      </c>
       <c r="J116" t="n">
         <v>371</v>
       </c>
@@ -4936,9 +4966,11 @@
         <v>-22616.96218653789</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>371</v>
+      </c>
       <c r="J117" t="n">
         <v>371</v>
       </c>
@@ -5014,9 +5046,11 @@
         <v>-22625.64198653789</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>370</v>
+      </c>
       <c r="J119" t="n">
         <v>371</v>
       </c>
@@ -5053,9 +5087,11 @@
         <v>-22558.95238653789</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>371</v>
+      </c>
       <c r="J120" t="n">
         <v>371</v>
       </c>
@@ -5092,9 +5128,11 @@
         <v>-24777.74818653789</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>372</v>
+      </c>
       <c r="J121" t="n">
         <v>371</v>
       </c>
@@ -5131,9 +5169,11 @@
         <v>-25688.50798653789</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>371</v>
+      </c>
       <c r="J122" t="n">
         <v>371</v>
       </c>
@@ -5170,9 +5210,11 @@
         <v>-25688.50798653789</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>370</v>
+      </c>
       <c r="J123" t="n">
         <v>371</v>
       </c>
@@ -5209,9 +5251,11 @@
         <v>-18598.66498653789</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>370</v>
+      </c>
       <c r="J124" t="n">
         <v>371</v>
       </c>
@@ -5248,9 +5292,11 @@
         <v>-18531.02698653789</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>372</v>
+      </c>
       <c r="J125" t="n">
         <v>371</v>
       </c>
@@ -5287,9 +5333,11 @@
         <v>-26141.79598653789</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>373</v>
+      </c>
       <c r="J126" t="n">
         <v>371</v>
       </c>
@@ -5326,9 +5374,11 @@
         <v>-26234.07528653789</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>370</v>
+      </c>
       <c r="J127" t="n">
         <v>371</v>
       </c>
@@ -5365,9 +5415,11 @@
         <v>-26232.87528653788</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>369</v>
+      </c>
       <c r="J128" t="n">
         <v>371</v>
       </c>
@@ -5560,9 +5612,11 @@
         <v>-35720.38298653789</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>367</v>
+      </c>
       <c r="J133" t="n">
         <v>371</v>
       </c>
@@ -5599,9 +5653,11 @@
         <v>-35218.41018653788</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>367</v>
+      </c>
       <c r="J134" t="n">
         <v>371</v>
       </c>
@@ -5638,9 +5694,11 @@
         <v>-35399.33348653789</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>368</v>
+      </c>
       <c r="J135" t="n">
         <v>371</v>
       </c>
@@ -5677,9 +5735,11 @@
         <v>-37155.94668653789</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>367</v>
+      </c>
       <c r="J136" t="n">
         <v>371</v>
       </c>
@@ -5716,9 +5776,11 @@
         <v>-44532.31298653789</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>366</v>
+      </c>
       <c r="J137" t="n">
         <v>371</v>
       </c>
@@ -5755,9 +5817,11 @@
         <v>-44532.31298653789</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>365</v>
+      </c>
       <c r="J138" t="n">
         <v>371</v>
       </c>
@@ -5794,9 +5858,11 @@
         <v>-51088.92498653789</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>365</v>
+      </c>
       <c r="J139" t="n">
         <v>371</v>
       </c>
@@ -5833,9 +5899,11 @@
         <v>-50246.92498653789</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>362</v>
+      </c>
       <c r="J140" t="n">
         <v>371</v>
       </c>
@@ -5872,9 +5940,11 @@
         <v>-49653.77188653788</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>364</v>
+      </c>
       <c r="J141" t="n">
         <v>371</v>
       </c>
@@ -5911,9 +5981,11 @@
         <v>-49875.30448653788</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>365</v>
+      </c>
       <c r="J142" t="n">
         <v>371</v>
       </c>
@@ -5950,7 +6022,7 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>363</v>
@@ -5991,9 +6063,11 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>365</v>
+      </c>
       <c r="J144" t="n">
         <v>371</v>
       </c>
@@ -6030,9 +6104,11 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>365</v>
+      </c>
       <c r="J145" t="n">
         <v>371</v>
       </c>
@@ -6069,9 +6145,11 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>365</v>
+      </c>
       <c r="J146" t="n">
         <v>371</v>
       </c>
@@ -6108,9 +6186,11 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>365</v>
+      </c>
       <c r="J147" t="n">
         <v>371</v>
       </c>
@@ -6147,9 +6227,11 @@
         <v>-47972.78308653789</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>365</v>
+      </c>
       <c r="J148" t="n">
         <v>371</v>
       </c>
@@ -6186,9 +6268,11 @@
         <v>-47768.23578653789</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>370</v>
+      </c>
       <c r="J149" t="n">
         <v>371</v>
       </c>
@@ -6225,9 +6309,11 @@
         <v>-50753.33998653789</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>374</v>
+      </c>
       <c r="J150" t="n">
         <v>371</v>
       </c>
@@ -6264,7 +6350,7 @@
         <v>-38750.60868653789</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
@@ -6303,7 +6389,7 @@
         <v>-38750.60868653789</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
@@ -6342,7 +6428,7 @@
         <v>-38500.60868653789</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
@@ -6381,7 +6467,7 @@
         <v>-38500.60868653789</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
@@ -6420,7 +6506,7 @@
         <v>-25773.58258653789</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
@@ -6459,7 +6545,7 @@
         <v>-25773.58258653789</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
@@ -6498,7 +6584,7 @@
         <v>-25130.53558653789</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
@@ -6537,7 +6623,7 @@
         <v>-26646.70628653789</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
@@ -6576,7 +6662,7 @@
         <v>-30418.63138653789</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
@@ -7122,7 +7208,7 @@
         <v>-31068.78998653789</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
@@ -7200,7 +7286,7 @@
         <v>-27121.42018653789</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
@@ -7239,7 +7325,7 @@
         <v>-27116.71678653789</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
@@ -7278,7 +7364,7 @@
         <v>-27116.71678653789</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
@@ -7317,7 +7403,7 @@
         <v>-27116.71678653789</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
@@ -7356,7 +7442,7 @@
         <v>-28002.4118865379</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
@@ -7395,7 +7481,7 @@
         <v>-28002.4118865379</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
@@ -7434,7 +7520,7 @@
         <v>-18504.8327865379</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
@@ -7512,7 +7598,7 @@
         <v>5564.230313462103</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
@@ -7707,9 +7793,11 @@
         <v>15692.9941134621</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>382</v>
+      </c>
       <c r="J188" t="n">
         <v>371</v>
       </c>
@@ -7785,9 +7873,11 @@
         <v>15284.9941134621</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>383</v>
+      </c>
       <c r="J190" t="n">
         <v>371</v>
       </c>
@@ -7826,7 +7916,9 @@
       <c r="H191" t="n">
         <v>1</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>382</v>
+      </c>
       <c r="J191" t="n">
         <v>371</v>
       </c>
@@ -7863,9 +7955,11 @@
         <v>9146.188513462104</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>381</v>
+      </c>
       <c r="J192" t="n">
         <v>371</v>
       </c>
@@ -7902,9 +7996,11 @@
         <v>11350.0051134621</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>378</v>
+      </c>
       <c r="J193" t="n">
         <v>371</v>
       </c>
@@ -7941,9 +8037,11 @@
         <v>12659.5623134621</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>379</v>
+      </c>
       <c r="J194" t="n">
         <v>371</v>
       </c>
@@ -7980,9 +8078,11 @@
         <v>13028.5042134621</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>380</v>
+      </c>
       <c r="J195" t="n">
         <v>371</v>
       </c>
@@ -8019,9 +8119,11 @@
         <v>13028.5042134621</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>381</v>
+      </c>
       <c r="J196" t="n">
         <v>371</v>
       </c>
@@ -8994,7 +9096,7 @@
         <v>-34443.71021865278</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
@@ -9002,11 +9104,11 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1.032735849056604</v>
+        <v>1</v>
       </c>
       <c r="M221" t="inlineStr"/>
     </row>
@@ -9036,8 +9138,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>371</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +9174,17 @@
         <v>-34173.28941865278</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>371</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9099,11 +9213,17 @@
         <v>-34173.28941865278</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>371</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9135,8 +9255,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>371</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9168,8 +9294,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>371</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9201,8 +9333,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>371</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9234,8 +9372,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>371</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9267,8 +9411,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>371</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9300,8 +9450,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>371</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9333,8 +9489,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>371</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9366,8 +9528,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>371</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9399,8 +9567,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>371</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9432,8 +9606,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>371</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9465,8 +9645,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>371</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9495,11 +9681,17 @@
         <v>-34926.21820939828</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>371</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9531,8 +9723,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>371</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9564,8 +9762,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>371</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9597,8 +9801,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>371</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9630,8 +9840,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>371</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9663,8 +9879,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>371</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9696,8 +9918,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>371</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9729,8 +9957,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>371</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9762,8 +9996,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>371</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9795,8 +10035,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>371</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9828,8 +10074,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>371</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9861,8 +10113,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>371</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9894,8 +10152,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>371</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9927,8 +10191,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>371</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9960,8 +10230,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>371</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9993,8 +10269,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>371</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10026,8 +10308,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>371</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10059,8 +10347,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>371</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10092,8 +10386,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>371</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10125,8 +10425,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>371</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10158,8 +10464,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>371</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10191,8 +10503,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>371</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10224,8 +10542,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>371</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10257,8 +10581,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>371</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10290,8 +10620,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>371</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10323,8 +10659,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>371</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10356,8 +10698,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>371</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10389,8 +10737,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>371</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10422,8 +10776,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>371</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10455,8 +10815,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>371</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10488,8 +10854,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>371</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10521,8 +10893,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>371</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10554,8 +10932,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>371</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10587,8 +10971,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>371</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10620,8 +11010,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>371</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10653,8 +11049,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>371</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10686,8 +11088,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>371</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10719,8 +11127,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>371</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10749,11 +11163,19 @@
         <v>-45595.97090939828</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>383</v>
+      </c>
+      <c r="J274" t="n">
+        <v>371</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10782,11 +11204,19 @@
         <v>-45606.00330939828</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>383</v>
+      </c>
+      <c r="J275" t="n">
+        <v>371</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10815,11 +11245,19 @@
         <v>-45713.88080939828</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>380</v>
+      </c>
+      <c r="J276" t="n">
+        <v>371</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10848,11 +11286,19 @@
         <v>-45648.40330939828</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>379</v>
+      </c>
+      <c r="J277" t="n">
+        <v>371</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10881,11 +11327,19 @@
         <v>-46247.38210939828</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>381</v>
+      </c>
+      <c r="J278" t="n">
+        <v>371</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10914,11 +11368,19 @@
         <v>-47118.99450939828</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>378</v>
+      </c>
+      <c r="J279" t="n">
+        <v>371</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10947,11 +11409,19 @@
         <v>-47117.78450939828</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>377</v>
+      </c>
+      <c r="J280" t="n">
+        <v>371</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10980,11 +11450,19 @@
         <v>-46645.54130939828</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>379</v>
+      </c>
+      <c r="J281" t="n">
+        <v>371</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11013,11 +11491,19 @@
         <v>-46707.64830939828</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>380</v>
+      </c>
+      <c r="J282" t="n">
+        <v>371</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11046,11 +11532,19 @@
         <v>-69250.42200939829</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>378</v>
+      </c>
+      <c r="J283" t="n">
+        <v>371</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11079,11 +11573,19 @@
         <v>-71038.96700939829</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>377</v>
+      </c>
+      <c r="J284" t="n">
+        <v>371</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11112,11 +11614,19 @@
         <v>-70737.37990939828</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>375</v>
+      </c>
+      <c r="J285" t="n">
+        <v>371</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11145,11 +11655,19 @@
         <v>-65922.87560939828</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>377</v>
+      </c>
+      <c r="J286" t="n">
+        <v>371</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11178,11 +11696,19 @@
         <v>-65951.64540939828</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>379</v>
+      </c>
+      <c r="J287" t="n">
+        <v>371</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11211,11 +11737,19 @@
         <v>-65951.64540939828</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>377</v>
+      </c>
+      <c r="J288" t="n">
+        <v>371</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11244,11 +11778,19 @@
         <v>-63045.10650939828</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>377</v>
+      </c>
+      <c r="J289" t="n">
+        <v>371</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11277,11 +11819,19 @@
         <v>-64394.87590939827</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>378</v>
+      </c>
+      <c r="J290" t="n">
+        <v>371</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11310,11 +11860,19 @@
         <v>-61617.26240939827</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>377</v>
+      </c>
+      <c r="J291" t="n">
+        <v>371</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11343,11 +11901,19 @@
         <v>-61529.43240939827</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>378</v>
+      </c>
+      <c r="J292" t="n">
+        <v>371</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11376,11 +11942,19 @@
         <v>-63494.34950939827</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>379</v>
+      </c>
+      <c r="J293" t="n">
+        <v>371</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11409,11 +11983,19 @@
         <v>-63477.85450939827</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>378</v>
+      </c>
+      <c r="J294" t="n">
+        <v>371</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11442,11 +12024,19 @@
         <v>-63477.85450939827</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>379</v>
+      </c>
+      <c r="J295" t="n">
+        <v>371</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11475,11 +12065,19 @@
         <v>-63228.64500939827</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>379</v>
+      </c>
+      <c r="J296" t="n">
+        <v>371</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11511,8 +12109,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>371</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11541,11 +12145,19 @@
         <v>-64254.06720939827</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>380</v>
+      </c>
+      <c r="J298" t="n">
+        <v>371</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11577,8 +12189,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>371</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11610,8 +12228,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>371</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11643,8 +12267,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>371</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11676,8 +12306,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>371</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11709,8 +12345,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>371</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11742,8 +12384,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>371</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11775,8 +12423,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>371</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11808,8 +12462,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>371</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11841,8 +12501,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>371</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11874,8 +12540,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>371</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11907,8 +12579,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>371</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11940,8 +12618,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>371</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11973,8 +12657,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>371</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12006,8 +12696,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>371</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12039,8 +12735,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>371</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12072,8 +12774,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>371</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12105,8 +12813,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>371</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12138,8 +12852,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>371</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12171,8 +12891,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>371</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12204,8 +12930,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>371</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12234,11 +12966,19 @@
         <v>-65533.74040939827</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>380</v>
+      </c>
+      <c r="J319" t="n">
+        <v>371</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12267,11 +13007,19 @@
         <v>-65533.74040939827</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>380</v>
+      </c>
+      <c r="J320" t="n">
+        <v>371</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12300,11 +13048,19 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>380</v>
+      </c>
+      <c r="J321" t="n">
+        <v>371</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12333,11 +13089,19 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>379</v>
+      </c>
+      <c r="J322" t="n">
+        <v>371</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12366,11 +13130,19 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>379</v>
+      </c>
+      <c r="J323" t="n">
+        <v>371</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12399,11 +13171,19 @@
         <v>-67177.72460939827</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>379</v>
+      </c>
+      <c r="J324" t="n">
+        <v>371</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12432,11 +13212,19 @@
         <v>-69075.17110939827</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>378</v>
+      </c>
+      <c r="J325" t="n">
+        <v>371</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12465,11 +13253,19 @@
         <v>-69075.17110939827</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>377</v>
+      </c>
+      <c r="J326" t="n">
+        <v>371</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12498,11 +13294,19 @@
         <v>-75623.34140939827</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>377</v>
+      </c>
+      <c r="J327" t="n">
+        <v>371</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12531,11 +13335,19 @@
         <v>-75623.34140939827</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>376</v>
+      </c>
+      <c r="J328" t="n">
+        <v>371</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12564,11 +13376,19 @@
         <v>-75343.86790939828</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>376</v>
+      </c>
+      <c r="J329" t="n">
+        <v>371</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12597,11 +13417,19 @@
         <v>-74735.09960939828</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>378</v>
+      </c>
+      <c r="J330" t="n">
+        <v>371</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12630,11 +13458,19 @@
         <v>-74735.09960939828</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>380</v>
+      </c>
+      <c r="J331" t="n">
+        <v>371</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12663,11 +13499,19 @@
         <v>-63421.73360939828</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>380</v>
+      </c>
+      <c r="J332" t="n">
+        <v>371</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12696,11 +13540,19 @@
         <v>-63413.85930939828</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>381</v>
+      </c>
+      <c r="J333" t="n">
+        <v>371</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12729,11 +13581,19 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>382</v>
+      </c>
+      <c r="J334" t="n">
+        <v>371</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12762,11 +13622,19 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>383</v>
+      </c>
+      <c r="J335" t="n">
+        <v>371</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12795,11 +13663,19 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>383</v>
+      </c>
+      <c r="J336" t="n">
+        <v>371</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12828,11 +13704,19 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>383</v>
+      </c>
+      <c r="J337" t="n">
+        <v>371</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12861,11 +13745,19 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>384</v>
+      </c>
+      <c r="J338" t="n">
+        <v>371</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12894,11 +13786,19 @@
         <v>-25690.94420939828</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>384</v>
+      </c>
+      <c r="J339" t="n">
+        <v>371</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12927,11 +13827,19 @@
         <v>-25553.23954618584</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>385</v>
+      </c>
+      <c r="J340" t="n">
+        <v>371</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12960,11 +13868,19 @@
         <v>-26315.23954618584</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>386</v>
+      </c>
+      <c r="J341" t="n">
+        <v>371</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12996,8 +13912,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>371</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13026,11 +13948,19 @@
         <v>-26308.23954618584</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>385</v>
+      </c>
+      <c r="J343" t="n">
+        <v>371</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13062,8 +13992,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>371</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13092,11 +14028,19 @@
         <v>-29365.10204618584</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>385</v>
+      </c>
+      <c r="J345" t="n">
+        <v>371</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13125,11 +14069,19 @@
         <v>-29363.10204618584</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>385</v>
+      </c>
+      <c r="J346" t="n">
+        <v>371</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13158,11 +14110,19 @@
         <v>-29363.10204618584</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>386</v>
+      </c>
+      <c r="J347" t="n">
+        <v>371</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13194,8 +14154,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>371</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13227,8 +14193,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>371</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13260,8 +14232,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>371</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13293,8 +14271,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>371</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13326,8 +14310,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>371</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13359,8 +14349,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>371</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13392,8 +14388,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>371</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13425,8 +14427,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>371</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13458,8 +14466,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>371</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13491,8 +14505,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>371</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13524,8 +14544,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>371</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13557,8 +14583,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>371</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13590,8 +14622,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>371</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13623,8 +14661,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>371</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13656,8 +14700,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>371</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13689,8 +14739,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>371</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13722,8 +14778,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>371</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13755,8 +14817,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>371</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13788,8 +14856,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>371</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13821,8 +14895,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>371</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13854,8 +14934,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>371</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13887,8 +14973,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>371</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13920,8 +15012,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>371</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13953,8 +15051,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>371</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13986,8 +15090,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>371</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14019,8 +15129,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>371</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14052,8 +15168,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>371</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14085,8 +15207,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>371</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14118,8 +15246,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>371</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14151,8 +15285,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>371</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14184,8 +15324,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>371</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14217,8 +15363,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>371</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14250,8 +15402,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>371</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14283,8 +15441,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>371</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14316,8 +15480,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>371</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14349,8 +15519,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>371</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14382,8 +15558,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>371</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14415,8 +15597,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>371</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14448,8 +15636,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>371</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14481,8 +15675,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>371</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14514,8 +15714,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>371</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14547,8 +15753,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>371</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14580,8 +15792,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>371</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14613,8 +15831,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>371</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14646,8 +15870,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>371</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14679,8 +15909,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>371</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14712,8 +15948,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>371</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14745,8 +15987,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>371</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14778,8 +16026,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>371</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14811,8 +16065,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>371</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14844,8 +16104,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>371</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14877,8 +16143,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>371</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14910,8 +16182,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>371</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14943,8 +16221,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>371</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14976,8 +16260,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>371</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15009,8 +16299,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>371</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15042,8 +16338,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>371</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15075,8 +16377,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>371</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15108,8 +16416,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>371</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15141,8 +16455,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>371</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15174,8 +16494,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>371</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15207,8 +16533,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>371</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15240,8 +16572,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>371</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15273,8 +16611,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>371</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15306,8 +16650,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>371</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15339,8 +16689,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>371</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15372,8 +16728,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>371</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15405,8 +16767,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>371</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15438,8 +16806,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>371</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15471,8 +16845,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>371</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15504,8 +16884,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>371</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15537,8 +16923,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>371</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15570,8 +16962,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>371</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15603,8 +17001,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>371</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15636,8 +17040,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>371</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15669,8 +17079,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>371</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15702,8 +17118,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>371</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15735,8 +17157,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>371</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15768,8 +17196,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>371</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15801,8 +17235,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>371</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15834,8 +17274,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>371</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15867,8 +17313,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>371</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15897,11 +17349,17 @@
         <v>-17569.9873035615</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>371</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15930,11 +17388,17 @@
         <v>-17569.9873035615</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>371</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15963,11 +17427,17 @@
         <v>-17569.9873035615</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>371</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15996,11 +17466,17 @@
         <v>-17569.9873035615</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>371</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16029,11 +17505,17 @@
         <v>-17584.8218035615</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>371</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16062,11 +17544,17 @@
         <v>-12942.1494035615</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>371</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16095,11 +17583,17 @@
         <v>-12942.1494035615</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>371</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16131,8 +17625,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>371</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16164,8 +17664,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>371</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16194,11 +17700,17 @@
         <v>-13522.2457035615</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>371</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16227,11 +17739,17 @@
         <v>-12167.0598035615</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>371</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16260,11 +17778,17 @@
         <v>-11893.7651035615</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>371</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16296,8 +17820,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>371</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16326,11 +17856,17 @@
         <v>-11893.7651035615</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>371</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16362,8 +17898,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>371</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16395,8 +17937,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>371</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16428,8 +17976,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>371</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16461,8 +18015,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>371</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16494,8 +18054,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>371</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16527,8 +18093,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>371</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16560,8 +18132,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>371</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16593,8 +18171,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>371</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16626,8 +18210,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>371</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16659,8 +18249,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>371</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16692,8 +18288,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>371</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16725,8 +18327,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>371</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16755,15 +18363,23 @@
         <v>-4054.380103561502</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>371</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
+        <v>1.06777628032345</v>
+      </c>
+      <c r="M456" t="n">
+        <v>1.021978021978022</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -16788,7 +18404,7 @@
         <v>7581.497796438498</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16821,7 +18437,7 @@
         <v>7556.434982368146</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16854,7 +18470,7 @@
         <v>5232.781982368146</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16887,7 +18503,7 @@
         <v>3523.000682368146</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16920,7 +18536,7 @@
         <v>3543.044582368146</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16953,7 +18569,7 @@
         <v>3041.894282368145</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16986,7 +18602,7 @@
         <v>-698.9064176318543</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17019,7 +18635,7 @@
         <v>-698.9064176318543</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17052,7 +18668,7 @@
         <v>451.4101701544057</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17085,7 +18701,7 @@
         <v>-674.0226298455943</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17118,7 +18734,7 @@
         <v>-674.0226298455943</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17151,7 +18767,7 @@
         <v>-5494.520129845595</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17184,7 +18800,7 @@
         <v>-4779.969729845595</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17217,7 +18833,7 @@
         <v>-4708.023329845595</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17250,7 +18866,7 @@
         <v>-4708.023329845595</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17481,7 +19097,7 @@
         <v>-2463.244529845595</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17514,7 +19130,7 @@
         <v>-2363.244529845595</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17547,7 +19163,7 @@
         <v>-2363.244529845595</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17580,7 +19196,7 @@
         <v>-2977.773829845596</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17613,7 +19229,7 @@
         <v>-4497.516329845595</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17646,7 +19262,7 @@
         <v>-4497.516329845595</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17679,7 +19295,7 @@
         <v>-4230.021129845595</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17712,7 +19328,7 @@
         <v>-4230.021129845595</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17745,7 +19361,7 @@
         <v>-5840.555129845596</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17778,7 +19394,7 @@
         <v>-22101.2480298456</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17811,7 +19427,7 @@
         <v>-20153.70312984559</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17844,7 +19460,7 @@
         <v>-20153.70312984559</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17877,7 +19493,7 @@
         <v>-20005.28512984559</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17910,7 +19526,7 @@
         <v>-20005.28512984559</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17943,7 +19559,7 @@
         <v>-20504.57002984559</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17976,7 +19592,7 @@
         <v>-20126.38312984559</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18009,7 +19625,7 @@
         <v>-20627.12312984559</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18042,7 +19658,7 @@
         <v>-20627.12312984559</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18075,7 +19691,7 @@
         <v>-19644.82992984559</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18108,7 +19724,7 @@
         <v>-16905.66802984559</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18141,7 +19757,7 @@
         <v>-12950.86322984559</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18174,7 +19790,7 @@
         <v>-19225.93772984559</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18207,7 +19823,7 @@
         <v>-19225.93772984559</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18240,7 +19856,7 @@
         <v>-18957.73942984559</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18273,7 +19889,7 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18306,7 +19922,7 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18339,7 +19955,7 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18372,7 +19988,7 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18405,7 +20021,7 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18438,7 +20054,7 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18471,7 +20087,7 @@
         <v>-14948.68552984559</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18504,7 +20120,7 @@
         <v>-13973.51002984559</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18537,7 +20153,7 @@
         <v>-13974.51002984559</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18570,7 +20186,7 @@
         <v>-15419.94212984559</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18603,7 +20219,7 @@
         <v>-14933.79632984559</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18636,7 +20252,7 @@
         <v>-13878.84392984559</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18669,7 +20285,7 @@
         <v>-13878.84392984559</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18702,7 +20318,7 @@
         <v>-12681.48657019647</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18735,7 +20351,7 @@
         <v>-12681.48657019647</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18768,7 +20384,7 @@
         <v>-12681.48657019647</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18801,7 +20417,7 @@
         <v>-6267.825670196472</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18834,7 +20450,7 @@
         <v>-2850.978170196472</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18867,7 +20483,7 @@
         <v>-2850.978170196472</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18900,7 +20516,7 @@
         <v>14061.06442980353</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18933,7 +20549,7 @@
         <v>6820.092129803529</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18966,7 +20582,7 @@
         <v>6820.092129803529</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18999,7 +20615,7 @@
         <v>8773.329429803529</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19032,7 +20648,7 @@
         <v>8992.043629803529</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19065,7 +20681,7 @@
         <v>64901.48852980353</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19098,7 +20714,7 @@
         <v>18224.0262665281</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19131,7 +20747,7 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19164,7 +20780,7 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19197,7 +20813,7 @@
         <v>18747.57340325266</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19230,7 +20846,7 @@
         <v>18747.57340325266</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19241,6 +20857,6 @@
       <c r="M531" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-20 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-15328.4749</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-15097.6574</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>364</v>
-      </c>
-      <c r="J3" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-15097.6574</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>369</v>
-      </c>
-      <c r="J4" t="n">
-        <v>364</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-13638.4452</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>369</v>
-      </c>
-      <c r="J5" t="n">
-        <v>364</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>7373.465600000005</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>370</v>
-      </c>
-      <c r="J6" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>7373.465600000005</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>371</v>
-      </c>
-      <c r="J7" t="n">
-        <v>370</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>7373.465600000005</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>371</v>
-      </c>
-      <c r="J8" t="n">
-        <v>370</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>7373.465600000005</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>371</v>
-      </c>
-      <c r="J9" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>14263.32380000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>371</v>
-      </c>
-      <c r="J10" t="n">
-        <v>371</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>14263.32380000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>372</v>
-      </c>
-      <c r="J11" t="n">
-        <v>371</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,19 +781,11 @@
         <v>14263.32380000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>372</v>
-      </c>
-      <c r="J12" t="n">
-        <v>371</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +814,11 @@
         <v>14263.32380000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>372</v>
-      </c>
-      <c r="J13" t="n">
-        <v>371</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,19 +847,11 @@
         <v>15676.97983582888</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>372</v>
-      </c>
-      <c r="J14" t="n">
-        <v>371</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -964,19 +880,11 @@
         <v>-4035.550264171117</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>375</v>
-      </c>
-      <c r="J15" t="n">
-        <v>371</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1005,19 +913,11 @@
         <v>-4035.550264171117</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>374</v>
-      </c>
-      <c r="J16" t="n">
-        <v>371</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1046,19 +946,11 @@
         <v>-4035.550264171117</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>374</v>
-      </c>
-      <c r="J17" t="n">
-        <v>371</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1087,19 +979,11 @@
         <v>-2624.191564171118</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>374</v>
-      </c>
-      <c r="J18" t="n">
-        <v>371</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1131,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>371</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1170,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>371</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1209,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>371</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1248,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>371</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1287,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>371</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1326,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>371</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1365,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>371</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1404,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>371</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1443,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>371</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1482,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>371</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1521,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>371</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1560,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>371</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1599,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>371</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1638,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>371</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1677,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>371</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1716,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>371</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1755,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>371</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1794,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>371</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1833,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>371</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1869,19 +1639,11 @@
         <v>-2676.460718813025</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>374</v>
-      </c>
-      <c r="J38" t="n">
-        <v>371</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1910,19 +1672,11 @@
         <v>-2676.460718813025</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>375</v>
-      </c>
-      <c r="J39" t="n">
-        <v>371</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1951,19 +1705,11 @@
         <v>-2676.460718813025</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>375</v>
-      </c>
-      <c r="J40" t="n">
-        <v>371</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1995,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>371</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2031,19 +1771,11 @@
         <v>765.4457811869747</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>374</v>
-      </c>
-      <c r="J42" t="n">
-        <v>371</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2072,19 +1804,11 @@
         <v>1047.573881186975</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>376</v>
-      </c>
-      <c r="J43" t="n">
-        <v>371</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2113,19 +1837,11 @@
         <v>1047.573881186975</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>377</v>
-      </c>
-      <c r="J44" t="n">
-        <v>371</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2157,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>371</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2196,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>371</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2235,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>371</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2274,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>371</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2313,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>371</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2352,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>371</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2391,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>371</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2430,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>371</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2469,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>371</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2508,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>371</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2547,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>371</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>371</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2625,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>371</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2664,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>371</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2703,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>371</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2742,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>371</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2781,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>371</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2820,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>371</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2859,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>371</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2898,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>371</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>371</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2976,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>371</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3015,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>371</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3054,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>371</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3093,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>371</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3132,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>371</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3171,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>371</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3210,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>371</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3249,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>371</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3288,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>371</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>371</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3366,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>371</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3405,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>371</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3444,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>371</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>371</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3522,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>371</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3561,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>371</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3600,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>371</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3639,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>371</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3678,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>371</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>371</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>371</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3795,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>371</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3834,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>371</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3873,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>371</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3912,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>371</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>371</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3990,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>371</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4029,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>371</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4068,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>371</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4107,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>371</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4146,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>371</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>371</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4224,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>371</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4263,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>371</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>371</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4341,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>371</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>371</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4419,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>371</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4458,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>371</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>371</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4536,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>371</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4575,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>371</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4614,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>371</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4653,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>371</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4692,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>371</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4731,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>371</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4770,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>371</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4809,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>371</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4848,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>371</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4884,19 +4180,11 @@
         <v>-22616.96218653789</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>371</v>
-      </c>
-      <c r="J115" t="n">
-        <v>371</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4925,19 +4213,11 @@
         <v>-22616.96218653789</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>371</v>
-      </c>
-      <c r="J116" t="n">
-        <v>371</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4966,19 +4246,11 @@
         <v>-22616.96218653789</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>371</v>
-      </c>
-      <c r="J117" t="n">
-        <v>371</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5010,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>371</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5046,19 +4312,11 @@
         <v>-22625.64198653789</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>370</v>
-      </c>
-      <c r="J119" t="n">
-        <v>371</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5087,19 +4345,11 @@
         <v>-22558.95238653789</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>371</v>
-      </c>
-      <c r="J120" t="n">
-        <v>371</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5128,19 +4378,11 @@
         <v>-24777.74818653789</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>372</v>
-      </c>
-      <c r="J121" t="n">
-        <v>371</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5169,19 +4411,11 @@
         <v>-25688.50798653789</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>371</v>
-      </c>
-      <c r="J122" t="n">
-        <v>371</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5210,19 +4444,11 @@
         <v>-25688.50798653789</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>370</v>
-      </c>
-      <c r="J123" t="n">
-        <v>371</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5251,19 +4477,11 @@
         <v>-18598.66498653789</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>370</v>
-      </c>
-      <c r="J124" t="n">
-        <v>371</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5292,19 +4510,11 @@
         <v>-18531.02698653789</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>372</v>
-      </c>
-      <c r="J125" t="n">
-        <v>371</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5333,19 +4543,11 @@
         <v>-26141.79598653789</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>373</v>
-      </c>
-      <c r="J126" t="n">
-        <v>371</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5374,19 +4576,11 @@
         <v>-26234.07528653789</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>370</v>
-      </c>
-      <c r="J127" t="n">
-        <v>371</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5415,19 +4609,11 @@
         <v>-26232.87528653788</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>369</v>
-      </c>
-      <c r="J128" t="n">
-        <v>371</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5459,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>371</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5498,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>371</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>371</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5576,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>371</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5612,19 +4774,11 @@
         <v>-35720.38298653789</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>367</v>
-      </c>
-      <c r="J133" t="n">
-        <v>371</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5653,19 +4807,11 @@
         <v>-35218.41018653788</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>367</v>
-      </c>
-      <c r="J134" t="n">
-        <v>371</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5694,19 +4840,11 @@
         <v>-35399.33348653789</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>368</v>
-      </c>
-      <c r="J135" t="n">
-        <v>371</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5735,19 +4873,11 @@
         <v>-37155.94668653789</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>367</v>
-      </c>
-      <c r="J136" t="n">
-        <v>371</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5776,19 +4906,11 @@
         <v>-44532.31298653789</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>366</v>
-      </c>
-      <c r="J137" t="n">
-        <v>371</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5817,19 +4939,11 @@
         <v>-44532.31298653789</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>365</v>
-      </c>
-      <c r="J138" t="n">
-        <v>371</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5858,19 +4972,11 @@
         <v>-51088.92498653789</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>365</v>
-      </c>
-      <c r="J139" t="n">
-        <v>371</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5899,19 +5005,11 @@
         <v>-50246.92498653789</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>362</v>
-      </c>
-      <c r="J140" t="n">
-        <v>371</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5940,19 +5038,11 @@
         <v>-49653.77188653788</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>364</v>
-      </c>
-      <c r="J141" t="n">
-        <v>371</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5981,19 +5071,11 @@
         <v>-49875.30448653788</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>365</v>
-      </c>
-      <c r="J142" t="n">
-        <v>371</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6028,13 +5110,9 @@
         <v>363</v>
       </c>
       <c r="J143" t="n">
-        <v>371</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +5147,11 @@
         <v>365</v>
       </c>
       <c r="J144" t="n">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -6104,17 +5182,15 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -6151,13 +5227,9 @@
         <v>365</v>
       </c>
       <c r="J146" t="n">
-        <v>371</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6192,11 +5264,11 @@
         <v>365</v>
       </c>
       <c r="J147" t="n">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -6233,11 +5305,11 @@
         <v>365</v>
       </c>
       <c r="J148" t="n">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -6268,19 +5340,11 @@
         <v>-47768.23578653789</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>370</v>
-      </c>
-      <c r="J149" t="n">
-        <v>371</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6309,19 +5373,11 @@
         <v>-50753.33998653789</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>374</v>
-      </c>
-      <c r="J150" t="n">
-        <v>371</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6353,14 +5409,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>371</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6392,14 +5442,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>371</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6431,14 +5475,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>371</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6470,14 +5508,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>371</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6509,14 +5541,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>371</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6548,14 +5574,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>371</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6587,14 +5607,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>371</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6626,14 +5640,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>371</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6665,14 +5673,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>371</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6704,14 +5706,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>371</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6743,14 +5739,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>371</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6782,14 +5772,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>371</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6821,14 +5805,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>371</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6860,14 +5838,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>371</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6899,14 +5871,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>371</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6938,14 +5904,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>371</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6977,14 +5937,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>371</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7016,14 +5970,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>371</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7055,14 +6003,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>371</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7094,14 +6036,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>371</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7133,14 +6069,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>371</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7172,14 +6102,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>371</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7211,14 +6135,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>371</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7250,14 +6168,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>371</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7289,14 +6201,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>371</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7328,14 +6234,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>371</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7367,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>371</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7406,14 +6300,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>371</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7445,14 +6333,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>371</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7484,14 +6366,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>371</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7523,14 +6399,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>371</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7562,14 +6432,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>371</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7598,17 +6462,11 @@
         <v>5564.230313462103</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>371</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7637,17 +6495,11 @@
         <v>5564.230313462103</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>371</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7676,17 +6528,11 @@
         <v>15790.6834134621</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>371</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7715,17 +6561,11 @@
         <v>15790.6834134621</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>371</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7754,17 +6594,11 @@
         <v>15638.1390134621</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>371</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7793,19 +6627,11 @@
         <v>15692.9941134621</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>382</v>
-      </c>
-      <c r="J188" t="n">
-        <v>371</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7834,17 +6660,11 @@
         <v>15692.9941134621</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>371</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7873,19 +6693,11 @@
         <v>15284.9941134621</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>383</v>
-      </c>
-      <c r="J190" t="n">
-        <v>371</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7914,19 +6726,11 @@
         <v>13290.6399134621</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>382</v>
-      </c>
-      <c r="J191" t="n">
-        <v>371</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7955,19 +6759,11 @@
         <v>9146.188513462104</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>381</v>
-      </c>
-      <c r="J192" t="n">
-        <v>371</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7996,19 +6792,11 @@
         <v>11350.0051134621</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>378</v>
-      </c>
-      <c r="J193" t="n">
-        <v>371</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8037,19 +6825,11 @@
         <v>12659.5623134621</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>379</v>
-      </c>
-      <c r="J194" t="n">
-        <v>371</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8078,19 +6858,11 @@
         <v>13028.5042134621</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>380</v>
-      </c>
-      <c r="J195" t="n">
-        <v>371</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8119,19 +6891,11 @@
         <v>13028.5042134621</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>381</v>
-      </c>
-      <c r="J196" t="n">
-        <v>371</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8163,14 +6927,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>371</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8202,14 +6960,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>371</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8241,14 +6993,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>371</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8280,14 +7026,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>371</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8319,14 +7059,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>371</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8358,14 +7092,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>371</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8397,14 +7125,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>371</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8436,14 +7158,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>371</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8475,14 +7191,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>371</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8514,14 +7224,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>371</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8553,14 +7257,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>371</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8592,14 +7290,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>371</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8631,14 +7323,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>371</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8670,14 +7356,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>371</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8709,14 +7389,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>371</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8745,17 +7419,11 @@
         <v>20596.41568134722</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>371</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8784,17 +7452,11 @@
         <v>20596.41568134722</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>371</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8826,14 +7488,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>371</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8865,14 +7521,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>371</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8904,14 +7554,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>371</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8943,14 +7587,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>371</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8982,14 +7620,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>371</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9021,14 +7653,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>371</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9060,14 +7686,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>371</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9099,14 +7719,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>371</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9138,14 +7752,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>371</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9177,14 +7785,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>371</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9216,14 +7818,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>371</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9255,14 +7851,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>371</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9294,14 +7884,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>371</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9333,14 +7917,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>371</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9372,14 +7950,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>371</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9411,14 +7983,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>371</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9450,14 +8016,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>371</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9489,14 +8049,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>371</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9528,14 +8082,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>371</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9567,14 +8115,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>371</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9606,14 +8148,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>371</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9645,14 +8181,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>371</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9684,14 +8214,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>371</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9723,14 +8247,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>371</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9762,14 +8280,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>371</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9801,14 +8313,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>371</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9840,14 +8346,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>371</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9879,14 +8379,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>371</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9918,14 +8412,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>371</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9957,14 +8445,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>371</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9996,14 +8478,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>371</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10035,14 +8511,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>371</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10074,14 +8544,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>371</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10113,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>371</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10149,17 +8607,11 @@
         <v>-32705.93490939828</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>371</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10188,17 +8640,11 @@
         <v>-32708.70270939828</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>371</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10230,14 +8676,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>371</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10269,14 +8709,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>371</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10308,14 +8742,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>371</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10347,14 +8775,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>371</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10386,14 +8808,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>371</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10425,14 +8841,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>371</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10464,14 +8874,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>371</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10503,14 +8907,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>371</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10542,14 +8940,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>371</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10581,14 +8973,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>371</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10620,14 +9006,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>371</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10659,14 +9039,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>371</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10698,14 +9072,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>371</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10737,14 +9105,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>371</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10776,14 +9138,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>371</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10815,14 +9171,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>371</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10854,14 +9204,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>371</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10893,14 +9237,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>371</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10932,14 +9270,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>371</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10971,14 +9303,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>371</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11010,14 +9336,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>371</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11049,14 +9369,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>371</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11088,14 +9402,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>371</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11127,14 +9435,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>371</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11163,19 +9465,11 @@
         <v>-45595.97090939828</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>383</v>
-      </c>
-      <c r="J274" t="n">
-        <v>371</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11204,19 +9498,11 @@
         <v>-45606.00330939828</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>383</v>
-      </c>
-      <c r="J275" t="n">
-        <v>371</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11245,19 +9531,11 @@
         <v>-45713.88080939828</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>380</v>
-      </c>
-      <c r="J276" t="n">
-        <v>371</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11286,19 +9564,11 @@
         <v>-45648.40330939828</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>379</v>
-      </c>
-      <c r="J277" t="n">
-        <v>371</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11327,19 +9597,11 @@
         <v>-46247.38210939828</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>381</v>
-      </c>
-      <c r="J278" t="n">
-        <v>371</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11368,19 +9630,11 @@
         <v>-47118.99450939828</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>378</v>
-      </c>
-      <c r="J279" t="n">
-        <v>371</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11409,19 +9663,11 @@
         <v>-47117.78450939828</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>377</v>
-      </c>
-      <c r="J280" t="n">
-        <v>371</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11450,19 +9696,11 @@
         <v>-46645.54130939828</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>379</v>
-      </c>
-      <c r="J281" t="n">
-        <v>371</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11491,19 +9729,11 @@
         <v>-46707.64830939828</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>380</v>
-      </c>
-      <c r="J282" t="n">
-        <v>371</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11532,19 +9762,11 @@
         <v>-69250.42200939829</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>378</v>
-      </c>
-      <c r="J283" t="n">
-        <v>371</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11573,19 +9795,11 @@
         <v>-71038.96700939829</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>377</v>
-      </c>
-      <c r="J284" t="n">
-        <v>371</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11614,19 +9828,11 @@
         <v>-70737.37990939828</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>375</v>
-      </c>
-      <c r="J285" t="n">
-        <v>371</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11655,19 +9861,11 @@
         <v>-65922.87560939828</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>377</v>
-      </c>
-      <c r="J286" t="n">
-        <v>371</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11702,13 +9900,9 @@
         <v>379</v>
       </c>
       <c r="J287" t="n">
-        <v>371</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11737,17 +9931,15 @@
         <v>-65951.64540939828</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L288" t="n">
@@ -11778,17 +9970,15 @@
         <v>-63045.10650939828</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L289" t="n">
@@ -11819,13 +10009,11 @@
         <v>-64394.87590939827</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11860,13 +10048,11 @@
         <v>-61617.26240939827</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11901,13 +10087,11 @@
         <v>-61529.43240939827</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11942,13 +10126,11 @@
         <v>-63494.34950939827</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11983,13 +10165,11 @@
         <v>-63477.85450939827</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -12024,13 +10204,11 @@
         <v>-63477.85450939827</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -12065,13 +10243,11 @@
         <v>-63228.64500939827</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12110,7 +10286,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12145,13 +10321,11 @@
         <v>-64254.06720939827</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12190,7 +10364,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12229,7 +10403,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12268,7 +10442,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12307,7 +10481,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12346,7 +10520,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12385,7 +10559,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12424,7 +10598,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12463,7 +10637,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12502,7 +10676,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12541,7 +10715,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12580,7 +10754,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12619,7 +10793,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12658,7 +10832,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12697,7 +10871,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12736,7 +10910,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12775,7 +10949,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12814,7 +10988,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12853,7 +11027,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12892,7 +11066,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12931,7 +11105,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12966,13 +11140,11 @@
         <v>-65533.74040939827</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -13013,7 +11185,7 @@
         <v>380</v>
       </c>
       <c r="J320" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -13048,13 +11220,11 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -13089,13 +11259,11 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13136,7 +11304,7 @@
         <v>379</v>
       </c>
       <c r="J323" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13177,7 +11345,7 @@
         <v>379</v>
       </c>
       <c r="J324" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13218,7 +11386,7 @@
         <v>378</v>
       </c>
       <c r="J325" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13259,7 +11427,7 @@
         <v>377</v>
       </c>
       <c r="J326" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13300,7 +11468,7 @@
         <v>377</v>
       </c>
       <c r="J327" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13341,7 +11509,7 @@
         <v>376</v>
       </c>
       <c r="J328" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13382,7 +11550,7 @@
         <v>376</v>
       </c>
       <c r="J329" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13423,7 +11591,7 @@
         <v>378</v>
       </c>
       <c r="J330" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13464,7 +11632,7 @@
         <v>380</v>
       </c>
       <c r="J331" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13505,7 +11673,7 @@
         <v>380</v>
       </c>
       <c r="J332" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13546,7 +11714,7 @@
         <v>381</v>
       </c>
       <c r="J333" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13581,13 +11749,11 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13622,13 +11788,11 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13663,13 +11827,11 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13704,13 +11866,11 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13745,13 +11905,11 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13786,13 +11944,11 @@
         <v>-25690.94420939828</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13827,13 +11983,11 @@
         <v>-25553.23954618584</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13868,13 +12022,11 @@
         <v>-26315.23954618584</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13913,7 +12065,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13948,13 +12100,11 @@
         <v>-26308.23954618584</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13993,7 +12143,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -14028,13 +12178,11 @@
         <v>-29365.10204618584</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -14069,13 +12217,11 @@
         <v>-29363.10204618584</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -14110,13 +12256,11 @@
         <v>-29363.10204618584</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -14155,7 +12299,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -14194,7 +12338,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -14233,7 +12377,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -14272,7 +12416,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -14311,7 +12455,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -14350,7 +12494,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14389,7 +12533,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14428,7 +12572,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -14467,7 +12611,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14506,7 +12650,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14545,7 +12689,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14584,7 +12728,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14623,7 +12767,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14662,7 +12806,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14701,7 +12845,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14740,7 +12884,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14779,7 +12923,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14818,7 +12962,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14857,7 +13001,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14896,7 +13040,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14935,7 +13079,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14974,7 +13118,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -15013,7 +13157,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -15052,7 +13196,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -15091,7 +13235,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -15130,7 +13274,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -15169,7 +13313,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -15208,7 +13352,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -15247,7 +13391,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -15286,7 +13430,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -15325,7 +13469,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -15364,7 +13508,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -15403,7 +13547,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -15442,7 +13586,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -15481,7 +13625,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -15520,7 +13664,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -15559,7 +13703,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -15598,7 +13742,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -15637,7 +13781,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15676,7 +13820,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15715,7 +13859,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15754,7 +13898,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15793,7 +13937,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15832,7 +13976,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15871,7 +14015,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15910,7 +14054,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15949,7 +14093,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15988,7 +14132,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -16027,7 +14171,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -16066,7 +14210,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -16105,7 +14249,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -16144,7 +14288,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -16183,7 +14327,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -16222,7 +14366,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -16261,7 +14405,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -16300,7 +14444,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -16339,7 +14483,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -16378,7 +14522,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -16417,7 +14561,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -16456,7 +14600,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -16495,7 +14639,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -16534,7 +14678,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -16573,7 +14717,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -16612,7 +14756,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -16651,7 +14795,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -16690,7 +14834,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -16729,7 +14873,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -16768,7 +14912,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -16807,7 +14951,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16846,7 +14990,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16885,7 +15029,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16924,7 +15068,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16963,7 +15107,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -17002,7 +15146,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -17041,7 +15185,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -17080,7 +15224,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -17119,7 +15263,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -17158,7 +15302,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -17197,7 +15341,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -17236,7 +15380,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -17275,7 +15419,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -17314,7 +15458,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -17353,7 +15497,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -17392,7 +15536,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -17431,7 +15575,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -17470,7 +15614,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -17509,7 +15653,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -17548,7 +15692,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -17587,7 +15731,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -17626,7 +15770,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -17665,7 +15809,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -17704,7 +15848,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -17743,7 +15887,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17782,7 +15926,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17821,7 +15965,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17860,7 +16004,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17899,7 +16043,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17938,7 +16082,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17977,7 +16121,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -18016,7 +16160,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -18055,7 +16199,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -18094,7 +16238,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -18133,7 +16277,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -18172,7 +16316,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -18211,7 +16355,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -18250,7 +16394,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -18289,7 +16433,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -18328,7 +16472,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -18363,23 +16507,21 @@
         <v>-4054.380103561502</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L456" t="n">
-        <v>1.06777628032345</v>
-      </c>
-      <c r="M456" t="n">
-        <v>1.021978021978022</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -18404,11 +16546,17 @@
         <v>7581.497796438498</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>379</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18437,11 +16585,17 @@
         <v>7556.434982368146</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>379</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18470,11 +16624,17 @@
         <v>5232.781982368146</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>379</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18503,11 +16663,17 @@
         <v>3523.000682368146</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>379</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18536,11 +16702,17 @@
         <v>3543.044582368146</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>379</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18569,11 +16741,17 @@
         <v>3041.894282368145</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>379</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18602,11 +16780,17 @@
         <v>-698.9064176318543</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>379</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18635,11 +16819,17 @@
         <v>-698.9064176318543</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>379</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18668,11 +16858,17 @@
         <v>451.4101701544057</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>379</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18701,11 +16897,17 @@
         <v>-674.0226298455943</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>379</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18734,11 +16936,17 @@
         <v>-674.0226298455943</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>379</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18767,11 +16975,17 @@
         <v>-5494.520129845595</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>379</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18800,11 +17014,17 @@
         <v>-4779.969729845595</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>379</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18833,11 +17053,17 @@
         <v>-4708.023329845595</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>379</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18866,11 +17092,17 @@
         <v>-4708.023329845595</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>379</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18902,8 +17134,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>379</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18935,8 +17173,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>379</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18968,8 +17212,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>379</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19001,8 +17251,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>379</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19034,8 +17290,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>379</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19067,8 +17329,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>379</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19097,11 +17365,17 @@
         <v>-2463.244529845595</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>379</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19130,11 +17404,17 @@
         <v>-2363.244529845595</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>379</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19163,11 +17443,17 @@
         <v>-2363.244529845595</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>379</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19196,11 +17482,17 @@
         <v>-2977.773829845596</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>379</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19229,11 +17521,17 @@
         <v>-4497.516329845595</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>379</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19262,11 +17560,17 @@
         <v>-4497.516329845595</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>379</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19295,11 +17599,17 @@
         <v>-4230.021129845595</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>379</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19328,11 +17638,17 @@
         <v>-4230.021129845595</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>379</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19361,11 +17677,17 @@
         <v>-5840.555129845596</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>379</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19394,11 +17716,17 @@
         <v>-22101.2480298456</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>379</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19427,11 +17755,17 @@
         <v>-20153.70312984559</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>379</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19460,11 +17794,17 @@
         <v>-20153.70312984559</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>379</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19493,11 +17833,17 @@
         <v>-20005.28512984559</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>379</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19526,11 +17872,17 @@
         <v>-20005.28512984559</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>379</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19559,11 +17911,17 @@
         <v>-20504.57002984559</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>379</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19592,11 +17950,17 @@
         <v>-20126.38312984559</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>379</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19625,11 +17989,17 @@
         <v>-20627.12312984559</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>379</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19658,11 +18028,17 @@
         <v>-20627.12312984559</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>379</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19691,11 +18067,17 @@
         <v>-19644.82992984559</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>379</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19724,11 +18106,17 @@
         <v>-16905.66802984559</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>379</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19757,11 +18145,17 @@
         <v>-12950.86322984559</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>379</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19790,11 +18184,17 @@
         <v>-19225.93772984559</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>379</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19823,11 +18223,17 @@
         <v>-19225.93772984559</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>379</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19856,11 +18262,17 @@
         <v>-18957.73942984559</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>379</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19889,11 +18301,17 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>379</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19922,11 +18340,17 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>379</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19955,11 +18379,17 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>379</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19988,11 +18418,17 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>379</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20021,11 +18457,17 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>379</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20054,11 +18496,17 @@
         <v>-14893.30052984559</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>379</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20087,11 +18535,17 @@
         <v>-14948.68552984559</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>379</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20120,11 +18574,17 @@
         <v>-13973.51002984559</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>379</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20153,11 +18613,17 @@
         <v>-13974.51002984559</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>379</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20186,11 +18652,17 @@
         <v>-15419.94212984559</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>379</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20219,11 +18691,17 @@
         <v>-14933.79632984559</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>379</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20252,11 +18730,17 @@
         <v>-13878.84392984559</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>379</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20285,11 +18769,17 @@
         <v>-13878.84392984559</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>379</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20318,11 +18808,17 @@
         <v>-12681.48657019647</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>379</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20351,11 +18847,17 @@
         <v>-12681.48657019647</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>379</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20384,11 +18886,17 @@
         <v>-12681.48657019647</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>379</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20417,11 +18925,17 @@
         <v>-6267.825670196472</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>379</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20450,11 +18964,17 @@
         <v>-2850.978170196472</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>379</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20483,11 +19003,17 @@
         <v>-2850.978170196472</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>379</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20516,11 +19042,17 @@
         <v>14061.06442980353</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>379</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20549,11 +19081,17 @@
         <v>6820.092129803529</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>379</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20582,11 +19120,17 @@
         <v>6820.092129803529</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>379</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20615,11 +19159,17 @@
         <v>8773.329429803529</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>379</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20648,11 +19198,17 @@
         <v>8992.043629803529</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>379</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20681,11 +19237,17 @@
         <v>64901.48852980353</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>379</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20714,11 +19276,17 @@
         <v>18224.0262665281</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>379</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20747,11 +19315,17 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>379</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20780,11 +19354,17 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>379</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20813,11 +19393,17 @@
         <v>18747.57340325266</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>379</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20846,17 +19432,23 @@
         <v>18747.57340325266</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>379</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
       <c r="M531" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-20 BackTest ZRX.xlsx
@@ -5104,14 +5104,10 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>363</v>
-      </c>
-      <c r="J143" t="n">
-        <v>363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5141,19 +5137,11 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>365</v>
-      </c>
-      <c r="J144" t="n">
-        <v>363</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5185,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>363</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5221,14 +5203,10 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>365</v>
-      </c>
-      <c r="J146" t="n">
-        <v>365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5258,19 +5236,11 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>365</v>
-      </c>
-      <c r="J147" t="n">
-        <v>365</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5299,19 +5269,11 @@
         <v>-47972.78308653789</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>365</v>
-      </c>
-      <c r="J148" t="n">
-        <v>365</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6462,7 +6424,7 @@
         <v>5564.230313462103</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6495,7 +6457,7 @@
         <v>5564.230313462103</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6528,7 +6490,7 @@
         <v>15790.6834134621</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6561,7 +6523,7 @@
         <v>15790.6834134621</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6594,7 +6556,7 @@
         <v>15638.1390134621</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6627,7 +6589,7 @@
         <v>15692.9941134621</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6660,7 +6622,7 @@
         <v>15692.9941134621</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6693,7 +6655,7 @@
         <v>15284.9941134621</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6726,7 +6688,7 @@
         <v>13290.6399134621</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6759,7 +6721,7 @@
         <v>9146.188513462104</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6792,7 +6754,7 @@
         <v>11350.0051134621</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6825,7 +6787,7 @@
         <v>12659.5623134621</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7419,7 +7381,7 @@
         <v>20596.41568134722</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7452,7 +7414,7 @@
         <v>20596.41568134722</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8607,7 +8569,7 @@
         <v>-32705.93490939828</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8640,7 +8602,7 @@
         <v>-32708.70270939828</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9894,14 +9856,10 @@
         <v>-65951.64540939828</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>379</v>
-      </c>
-      <c r="J287" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
@@ -9934,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>379</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9973,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>379</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10012,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>379</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10051,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>379</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10090,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>379</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10129,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>379</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10168,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>379</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10207,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>379</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10246,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>379</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10285,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>379</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10324,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>379</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10363,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>379</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10402,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>379</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10441,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>379</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10480,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>379</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10519,14 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>379</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10558,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>379</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10597,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>379</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10636,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>379</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10675,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>379</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10714,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>379</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10753,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>379</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10792,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>379</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10831,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>379</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10870,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>379</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10909,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>379</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10948,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>379</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10987,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>379</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11026,14 +10816,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>379</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11065,14 +10849,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>379</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11104,14 +10882,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>379</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11143,14 +10915,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>379</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11179,19 +10945,11 @@
         <v>-65533.74040939827</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>380</v>
-      </c>
-      <c r="J320" t="n">
-        <v>379</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11220,15 +10978,15 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>380</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L321" t="n">
@@ -11259,12 +11017,12 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
         <v>379</v>
       </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11303,9 +11061,7 @@
       <c r="I323" t="n">
         <v>379</v>
       </c>
-      <c r="J323" t="n">
-        <v>379</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11344,9 +11100,7 @@
       <c r="I324" t="n">
         <v>379</v>
       </c>
-      <c r="J324" t="n">
-        <v>379</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11385,9 +11139,7 @@
       <c r="I325" t="n">
         <v>378</v>
       </c>
-      <c r="J325" t="n">
-        <v>379</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11426,9 +11178,7 @@
       <c r="I326" t="n">
         <v>377</v>
       </c>
-      <c r="J326" t="n">
-        <v>379</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11467,9 +11217,7 @@
       <c r="I327" t="n">
         <v>377</v>
       </c>
-      <c r="J327" t="n">
-        <v>379</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11508,9 +11256,7 @@
       <c r="I328" t="n">
         <v>376</v>
       </c>
-      <c r="J328" t="n">
-        <v>379</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11549,9 +11295,7 @@
       <c r="I329" t="n">
         <v>376</v>
       </c>
-      <c r="J329" t="n">
-        <v>379</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11590,9 +11334,7 @@
       <c r="I330" t="n">
         <v>378</v>
       </c>
-      <c r="J330" t="n">
-        <v>379</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11631,9 +11373,7 @@
       <c r="I331" t="n">
         <v>380</v>
       </c>
-      <c r="J331" t="n">
-        <v>379</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11672,9 +11412,7 @@
       <c r="I332" t="n">
         <v>380</v>
       </c>
-      <c r="J332" t="n">
-        <v>379</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11713,9 +11451,7 @@
       <c r="I333" t="n">
         <v>381</v>
       </c>
-      <c r="J333" t="n">
-        <v>379</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11749,12 +11485,12 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>382</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11788,12 +11524,12 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>383</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11827,12 +11563,12 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>383</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11866,12 +11602,12 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>383</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11905,12 +11641,12 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>384</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11944,12 +11680,12 @@
         <v>-25690.94420939828</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>384</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11983,12 +11719,12 @@
         <v>-25553.23954618584</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>385</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12022,12 +11758,12 @@
         <v>-26315.23954618584</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>386</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12061,12 +11797,12 @@
         <v>-26315.23954618584</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>379</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>385</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12103,9 +11839,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>379</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12142,9 +11876,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>379</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12181,9 +11913,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>379</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12220,9 +11950,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>379</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12259,9 +11987,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>379</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12298,9 +12024,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>379</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12337,9 +12061,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>379</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12376,9 +12098,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>379</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12415,9 +12135,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>379</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12454,9 +12172,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>379</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12493,9 +12209,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>379</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12532,9 +12246,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>379</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12571,9 +12283,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>379</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12610,9 +12320,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>379</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12649,9 +12357,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>379</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12688,9 +12394,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>379</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12727,9 +12431,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>379</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12766,9 +12468,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>379</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12805,9 +12505,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>379</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12844,9 +12542,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>379</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12883,9 +12579,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>379</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12922,9 +12616,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>379</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12961,9 +12653,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>379</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13000,9 +12690,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>379</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13039,9 +12727,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>379</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13078,9 +12764,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>379</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13117,9 +12801,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>379</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13156,9 +12838,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>379</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13195,9 +12875,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>379</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13234,9 +12912,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>379</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13273,9 +12949,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>379</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13312,9 +12986,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>379</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13351,9 +13023,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>379</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13390,9 +13060,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>379</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13429,9 +13097,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>379</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13468,9 +13134,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>379</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13507,9 +13171,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>379</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13546,9 +13208,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>379</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13585,9 +13245,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>379</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13624,9 +13282,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>379</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13663,9 +13319,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>379</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13702,9 +13356,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>379</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13741,9 +13393,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>379</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13780,9 +13430,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>379</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13819,9 +13467,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>379</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13858,9 +13504,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>379</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13897,9 +13541,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>379</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13936,9 +13578,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>379</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13975,9 +13615,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>379</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14014,9 +13652,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>379</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14053,9 +13689,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>379</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14092,9 +13726,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>379</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14131,9 +13763,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>379</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14170,9 +13800,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>379</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14209,9 +13837,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>379</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14248,9 +13874,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>379</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14287,9 +13911,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>379</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14326,9 +13948,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>379</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14365,9 +13985,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>379</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14404,9 +14022,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>379</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14443,9 +14059,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>379</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14482,9 +14096,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>379</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14521,9 +14133,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>379</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14560,9 +14170,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>379</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14599,9 +14207,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>379</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14638,9 +14244,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>379</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14677,9 +14281,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>379</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14716,9 +14318,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>379</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14755,9 +14355,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>379</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14794,9 +14392,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>379</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14833,9 +14429,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>379</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,9 +14466,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>379</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14911,9 +14503,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>379</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14950,9 +14540,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>379</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14989,9 +14577,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>379</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15028,9 +14614,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>379</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15067,9 +14651,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>379</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15106,9 +14688,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>379</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15145,9 +14725,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>379</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15184,9 +14762,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>379</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15223,9 +14799,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>379</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15262,9 +14836,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>379</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15301,9 +14873,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>379</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15340,9 +14910,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>379</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15379,9 +14947,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>379</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15418,9 +14984,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>379</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15457,9 +15021,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>379</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15496,9 +15058,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>379</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15535,9 +15095,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>379</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15574,9 +15132,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>379</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15613,9 +15169,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>379</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15652,9 +15206,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>379</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15691,9 +15243,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>379</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15730,9 +15280,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>379</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15769,9 +15317,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>379</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15808,9 +15354,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>379</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15847,9 +15391,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>379</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15886,9 +15428,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>379</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15925,9 +15465,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>379</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15964,9 +15502,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>379</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16003,9 +15539,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>379</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16042,9 +15576,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>379</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16081,9 +15613,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>379</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,9 +15650,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>379</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16159,9 +15687,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>379</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16198,9 +15724,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>379</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16237,9 +15761,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>379</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16276,9 +15798,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>379</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16315,9 +15835,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>379</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16354,9 +15872,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>379</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16393,9 +15909,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>379</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16432,9 +15946,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>379</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16471,9 +15983,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>379</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16510,9 +16020,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>379</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16549,9 +16057,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>379</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16588,9 +16094,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>379</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16627,9 +16131,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>379</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16666,9 +16168,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>379</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16705,9 +16205,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>379</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16744,9 +16242,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>379</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,9 +16279,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>379</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16822,9 +16316,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>379</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16861,9 +16353,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>379</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16900,9 +16390,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>379</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16939,9 +16427,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>379</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16978,9 +16464,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>379</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17017,9 +16501,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>379</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17056,9 +16538,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>379</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17095,9 +16575,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>379</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17134,9 +16612,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>379</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17173,9 +16649,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>379</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17212,9 +16686,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>379</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17251,9 +16723,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>379</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17290,9 +16760,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>379</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17329,9 +16797,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>379</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17368,9 +16834,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>379</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17407,9 +16871,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>379</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17446,9 +16908,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>379</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17485,9 +16945,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>379</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17524,9 +16982,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>379</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17563,9 +17019,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>379</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17602,9 +17056,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>379</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17641,9 +17093,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>379</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17680,9 +17130,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>379</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17719,9 +17167,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>379</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17758,9 +17204,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>379</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17797,9 +17241,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>379</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17836,9 +17278,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>379</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17875,9 +17315,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>379</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17914,9 +17352,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>379</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17953,9 +17389,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>379</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17992,9 +17426,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>379</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18031,9 +17463,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>379</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18070,9 +17500,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>379</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18109,9 +17537,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>379</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18148,9 +17574,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>379</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18187,9 +17611,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>379</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18226,9 +17648,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>379</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18265,9 +17685,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>379</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18304,9 +17722,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>379</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18343,9 +17759,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>379</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18382,9 +17796,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>379</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18421,9 +17833,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>379</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18460,9 +17870,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>379</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18499,9 +17907,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>379</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18538,9 +17944,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>379</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18577,9 +17981,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>379</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18616,9 +18018,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>379</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18655,9 +18055,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>379</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18694,9 +18092,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>379</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18733,9 +18129,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>379</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18772,9 +18166,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>379</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18811,9 +18203,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>379</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18850,9 +18240,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>379</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18889,9 +18277,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>379</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18928,9 +18314,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>379</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18967,9 +18351,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>379</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19006,9 +18388,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>379</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19045,9 +18425,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>379</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19084,9 +18462,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>379</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19123,9 +18499,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>379</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19162,9 +18536,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>379</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19198,20 +18570,16 @@
         <v>8992.043629803529</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>379</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L525" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="inlineStr"/>
     </row>
     <row r="526">
@@ -19237,17 +18605,11 @@
         <v>64901.48852980353</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>379</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19276,17 +18638,11 @@
         <v>18224.0262665281</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>379</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19315,17 +18671,11 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>379</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19354,17 +18704,11 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>379</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19396,14 +18740,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>379</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19435,14 +18773,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>379</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
